--- a/Data/Results.xlsx
+++ b/Data/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eman AlOmar\Downloads\Anony\Anony\ICSE-SEET-2023\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{EA1F1BAD-C76E-42E0-B692-2ED6FEF82975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9494D1BF-A338-4BDC-A10C-18731C144026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spring22a" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <sheet name="Multithreading" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2497,7 +2496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2590,35 +2589,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2630,6 +2601,35 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3373,7 +3373,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3839,13 +3839,13 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="103"/>
+      <c r="J1" s="81"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="12.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="90" t="s">
         <v>643</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -3862,16 +3862,16 @@
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="90" t="s">
         <v>661</v>
       </c>
-      <c r="J2" s="105"/>
+      <c r="J2" s="83"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="12.3">
-      <c r="A3" s="82"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="10" t="s">
         <v>146</v>
       </c>
@@ -3886,14 +3886,14 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="85"/>
-      <c r="J3" s="101"/>
+      <c r="H3" s="91"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="12.3">
-      <c r="A4" s="82"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="6" t="s">
         <v>148</v>
       </c>
@@ -3904,14 +3904,14 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="85"/>
-      <c r="J4" s="106"/>
+      <c r="H4" s="91"/>
+      <c r="J4" s="84"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="12.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="22" t="s">
         <v>150</v>
       </c>
@@ -3922,14 +3922,14 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="85"/>
-      <c r="J5" s="107"/>
+      <c r="H5" s="91"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="12.3">
-      <c r="A6" s="82"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="10" t="s">
         <v>152</v>
       </c>
@@ -3940,14 +3940,14 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="85"/>
-      <c r="J6" s="108"/>
+      <c r="H6" s="91"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="12.3">
-      <c r="A7" s="82"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="18" t="s">
         <v>153</v>
       </c>
@@ -3958,14 +3958,14 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="85"/>
-      <c r="J7" s="109"/>
+      <c r="H7" s="91"/>
+      <c r="J7" s="87"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="12.3">
-      <c r="A8" s="82"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="15" t="s">
         <v>154</v>
       </c>
@@ -3976,11 +3976,11 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="85"/>
-      <c r="J8" s="111"/>
+      <c r="H8" s="91"/>
+      <c r="J8" s="89"/>
     </row>
     <row r="9" spans="1:13" ht="12.3">
-      <c r="A9" s="83"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="22" t="s">
         <v>155</v>
       </c>
@@ -3991,10 +3991,10 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="86"/>
+      <c r="H9" s="92"/>
     </row>
     <row r="10" spans="1:13" ht="12.3">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="93" t="s">
         <v>644</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -4011,10 +4011,10 @@
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="78"/>
+      <c r="H10" s="93"/>
     </row>
     <row r="11" spans="1:13" ht="12.3">
-      <c r="A11" s="79"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="10" t="s">
         <v>159</v>
       </c>
@@ -4029,10 +4029,10 @@
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="85"/>
+      <c r="H11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="12.3">
-      <c r="A12" s="79"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="10" t="s">
         <v>159</v>
       </c>
@@ -4047,10 +4047,10 @@
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="85"/>
+      <c r="H12" s="91"/>
     </row>
     <row r="13" spans="1:13" ht="12.3">
-      <c r="A13" s="79"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="10" t="s">
@@ -4061,10 +4061,10 @@
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="85"/>
+      <c r="H13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="12.3">
-      <c r="A14" s="79"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="10" t="s">
@@ -4075,10 +4075,10 @@
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="85"/>
+      <c r="H14" s="91"/>
     </row>
     <row r="15" spans="1:13" ht="12.3">
-      <c r="A15" s="79"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="15" t="s">
@@ -4089,10 +4089,10 @@
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="85"/>
+      <c r="H15" s="91"/>
     </row>
     <row r="16" spans="1:13" ht="12.3">
-      <c r="A16" s="80"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="6" t="s">
@@ -4103,10 +4103,10 @@
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="86"/>
+      <c r="H16" s="92"/>
     </row>
     <row r="17" spans="1:8" ht="12.3">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="90" t="s">
         <v>645</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -4123,10 +4123,10 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="81"/>
+      <c r="H17" s="90"/>
     </row>
     <row r="18" spans="1:8" ht="12.3">
-      <c r="A18" s="82"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="18" t="s">
         <v>165</v>
       </c>
@@ -4141,10 +4141,10 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="85"/>
+      <c r="H18" s="91"/>
     </row>
     <row r="19" spans="1:8" ht="12.3">
-      <c r="A19" s="82"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="18" t="s">
         <v>167</v>
       </c>
@@ -4155,10 +4155,10 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="85"/>
+      <c r="H19" s="91"/>
     </row>
     <row r="20" spans="1:8" ht="12.3">
-      <c r="A20" s="82"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="10" t="s">
         <v>168</v>
       </c>
@@ -4169,10 +4169,10 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="85"/>
+      <c r="H20" s="91"/>
     </row>
     <row r="21" spans="1:8" ht="12.3">
-      <c r="A21" s="82"/>
+      <c r="A21" s="94"/>
       <c r="B21" s="21" t="s">
         <v>169</v>
       </c>
@@ -4183,10 +4183,10 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="85"/>
+      <c r="H21" s="91"/>
     </row>
     <row r="22" spans="1:8" ht="12.3">
-      <c r="A22" s="82"/>
+      <c r="A22" s="94"/>
       <c r="B22" s="10" t="s">
         <v>170</v>
       </c>
@@ -4197,10 +4197,10 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="85"/>
+      <c r="H22" s="91"/>
     </row>
     <row r="23" spans="1:8" ht="12.3">
-      <c r="A23" s="82"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="10" t="s">
         <v>171</v>
       </c>
@@ -4211,10 +4211,10 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="85"/>
+      <c r="H23" s="91"/>
     </row>
     <row r="24" spans="1:8" ht="12.3">
-      <c r="A24" s="83"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="18" t="s">
         <v>172</v>
       </c>
@@ -4225,10 +4225,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="86"/>
+      <c r="H24" s="92"/>
     </row>
     <row r="25" spans="1:8" ht="12.3">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="93" t="s">
         <v>646</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -4245,10 +4245,10 @@
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="78"/>
+      <c r="H25" s="93"/>
     </row>
     <row r="26" spans="1:8" ht="12.3">
-      <c r="A26" s="79"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="10" t="s">
         <v>175</v>
       </c>
@@ -4259,10 +4259,10 @@
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="85"/>
+      <c r="H26" s="91"/>
     </row>
     <row r="27" spans="1:8" ht="12.3">
-      <c r="A27" s="79"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="18" t="s">
         <v>176</v>
       </c>
@@ -4273,10 +4273,10 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="85"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="12.3">
-      <c r="A28" s="79"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="15" t="s">
         <v>177</v>
       </c>
@@ -4287,10 +4287,10 @@
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
-      <c r="H28" s="85"/>
+      <c r="H28" s="91"/>
     </row>
     <row r="29" spans="1:8" ht="12.3">
-      <c r="A29" s="79"/>
+      <c r="A29" s="96"/>
       <c r="B29" s="18" t="s">
         <v>178</v>
       </c>
@@ -4301,10 +4301,10 @@
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="85"/>
+      <c r="H29" s="91"/>
     </row>
     <row r="30" spans="1:8" ht="12.3">
-      <c r="A30" s="79"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="6" t="s">
         <v>44</v>
       </c>
@@ -4315,10 +4315,10 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="85"/>
+      <c r="H30" s="91"/>
     </row>
     <row r="31" spans="1:8" ht="12.3">
-      <c r="A31" s="79"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="6" t="s">
         <v>179</v>
       </c>
@@ -4329,10 +4329,10 @@
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
-      <c r="H31" s="85"/>
+      <c r="H31" s="91"/>
     </row>
     <row r="32" spans="1:8" ht="12.3">
-      <c r="A32" s="79"/>
+      <c r="A32" s="96"/>
       <c r="B32" s="18" t="s">
         <v>180</v>
       </c>
@@ -4343,10 +4343,10 @@
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="85"/>
+      <c r="H32" s="91"/>
     </row>
     <row r="33" spans="1:8" ht="12.3">
-      <c r="A33" s="80"/>
+      <c r="A33" s="97"/>
       <c r="B33" s="10" t="s">
         <v>181</v>
       </c>
@@ -4357,10 +4357,10 @@
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="86"/>
+      <c r="H33" s="92"/>
     </row>
     <row r="34" spans="1:8" ht="12.3">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="90" t="s">
         <v>647</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -4373,10 +4373,10 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="81"/>
+      <c r="H34" s="90"/>
     </row>
     <row r="35" spans="1:8" ht="12.3">
-      <c r="A35" s="82"/>
+      <c r="A35" s="94"/>
       <c r="B35" s="15" t="s">
         <v>183</v>
       </c>
@@ -4387,10 +4387,10 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="85"/>
+      <c r="H35" s="91"/>
     </row>
     <row r="36" spans="1:8" ht="12.3">
-      <c r="A36" s="82"/>
+      <c r="A36" s="94"/>
       <c r="B36" s="22" t="s">
         <v>184</v>
       </c>
@@ -4401,10 +4401,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="85"/>
+      <c r="H36" s="91"/>
     </row>
     <row r="37" spans="1:8" ht="12.3">
-      <c r="A37" s="82"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="21" t="s">
         <v>185</v>
       </c>
@@ -4415,10 +4415,10 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="85"/>
+      <c r="H37" s="91"/>
     </row>
     <row r="38" spans="1:8" ht="12.3">
-      <c r="A38" s="82"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="15" t="s">
         <v>186</v>
       </c>
@@ -4429,10 +4429,10 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="85"/>
+      <c r="H38" s="91"/>
     </row>
     <row r="39" spans="1:8" ht="12.3">
-      <c r="A39" s="82"/>
+      <c r="A39" s="94"/>
       <c r="B39" s="6" t="s">
         <v>187</v>
       </c>
@@ -4443,10 +4443,10 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="85"/>
+      <c r="H39" s="91"/>
     </row>
     <row r="40" spans="1:8" ht="12.3">
-      <c r="A40" s="82"/>
+      <c r="A40" s="94"/>
       <c r="B40" s="18" t="s">
         <v>188</v>
       </c>
@@ -4457,10 +4457,10 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="85"/>
+      <c r="H40" s="91"/>
     </row>
     <row r="41" spans="1:8" ht="12.3">
-      <c r="A41" s="82"/>
+      <c r="A41" s="94"/>
       <c r="B41" s="10" t="s">
         <v>161</v>
       </c>
@@ -4471,10 +4471,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="85"/>
+      <c r="H41" s="91"/>
     </row>
     <row r="42" spans="1:8" ht="12.3">
-      <c r="A42" s="82"/>
+      <c r="A42" s="94"/>
       <c r="B42" s="6" t="s">
         <v>189</v>
       </c>
@@ -4485,10 +4485,10 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="85"/>
+      <c r="H42" s="91"/>
     </row>
     <row r="43" spans="1:8" ht="12.3">
-      <c r="A43" s="83"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="10" t="s">
         <v>190</v>
       </c>
@@ -4499,10 +4499,10 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="86"/>
+      <c r="H43" s="92"/>
     </row>
     <row r="44" spans="1:8" ht="12.3">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="93" t="s">
         <v>648</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -4519,10 +4519,10 @@
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
-      <c r="H44" s="78"/>
+      <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:8" ht="15.6">
-      <c r="A45" s="79"/>
+      <c r="A45" s="96"/>
       <c r="B45" s="27" t="s">
         <v>193</v>
       </c>
@@ -4533,10 +4533,10 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="85"/>
+      <c r="H45" s="91"/>
     </row>
     <row r="46" spans="1:8" ht="12.3">
-      <c r="A46" s="79"/>
+      <c r="A46" s="96"/>
       <c r="B46" s="10" t="s">
         <v>194</v>
       </c>
@@ -4547,10 +4547,10 @@
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
-      <c r="H46" s="85"/>
+      <c r="H46" s="91"/>
     </row>
     <row r="47" spans="1:8" ht="12.3">
-      <c r="A47" s="79"/>
+      <c r="A47" s="96"/>
       <c r="B47" s="10" t="s">
         <v>195</v>
       </c>
@@ -4561,10 +4561,10 @@
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
-      <c r="H47" s="85"/>
+      <c r="H47" s="91"/>
     </row>
     <row r="48" spans="1:8" ht="12.3">
-      <c r="A48" s="79"/>
+      <c r="A48" s="96"/>
       <c r="B48" s="10" t="s">
         <v>196</v>
       </c>
@@ -4575,10 +4575,10 @@
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
-      <c r="H48" s="85"/>
+      <c r="H48" s="91"/>
     </row>
     <row r="49" spans="1:8" ht="12.3">
-      <c r="A49" s="79"/>
+      <c r="A49" s="96"/>
       <c r="B49" s="6" t="s">
         <v>15</v>
       </c>
@@ -4589,10 +4589,10 @@
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
-      <c r="H49" s="85"/>
+      <c r="H49" s="91"/>
     </row>
     <row r="50" spans="1:8" ht="12.3">
-      <c r="A50" s="79"/>
+      <c r="A50" s="96"/>
       <c r="B50" s="10" t="s">
         <v>197</v>
       </c>
@@ -4603,10 +4603,10 @@
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
-      <c r="H50" s="85"/>
+      <c r="H50" s="91"/>
     </row>
     <row r="51" spans="1:8" ht="12.3">
-      <c r="A51" s="79"/>
+      <c r="A51" s="96"/>
       <c r="B51" s="18" t="s">
         <v>198</v>
       </c>
@@ -4617,10 +4617,10 @@
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
-      <c r="H51" s="85"/>
+      <c r="H51" s="91"/>
     </row>
     <row r="52" spans="1:8" ht="12.3">
-      <c r="A52" s="80"/>
+      <c r="A52" s="97"/>
       <c r="B52" s="15" t="s">
         <v>199</v>
       </c>
@@ -4631,10 +4631,10 @@
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
-      <c r="H52" s="86"/>
+      <c r="H52" s="92"/>
     </row>
     <row r="53" spans="1:8" ht="12.3">
-      <c r="A53" s="81" t="s">
+      <c r="A53" s="90" t="s">
         <v>649</v>
       </c>
       <c r="B53" s="10" t="s">
@@ -4651,10 +4651,10 @@
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="81"/>
+      <c r="H53" s="90"/>
     </row>
     <row r="54" spans="1:8" ht="12.3">
-      <c r="A54" s="82"/>
+      <c r="A54" s="94"/>
       <c r="B54" s="10" t="s">
         <v>203</v>
       </c>
@@ -4669,10 +4669,10 @@
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="85"/>
+      <c r="H54" s="91"/>
     </row>
     <row r="55" spans="1:8" ht="12.3">
-      <c r="A55" s="82"/>
+      <c r="A55" s="94"/>
       <c r="B55" s="6" t="s">
         <v>206</v>
       </c>
@@ -4687,10 +4687,10 @@
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="85"/>
+      <c r="H55" s="91"/>
     </row>
     <row r="56" spans="1:8" ht="12.3">
-      <c r="A56" s="82"/>
+      <c r="A56" s="94"/>
       <c r="B56" s="10" t="s">
         <v>208</v>
       </c>
@@ -4705,10 +4705,10 @@
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="85"/>
+      <c r="H56" s="91"/>
     </row>
     <row r="57" spans="1:8" ht="12.3">
-      <c r="A57" s="82"/>
+      <c r="A57" s="94"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="10" t="s">
@@ -4719,10 +4719,10 @@
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="85"/>
+      <c r="H57" s="91"/>
     </row>
     <row r="58" spans="1:8" ht="12.3">
-      <c r="A58" s="83"/>
+      <c r="A58" s="95"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="10" t="s">
@@ -4733,10 +4733,10 @@
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="86"/>
+      <c r="H58" s="92"/>
     </row>
     <row r="59" spans="1:8" ht="12.3">
-      <c r="A59" s="78" t="s">
+      <c r="A59" s="93" t="s">
         <v>650</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -4757,10 +4757,10 @@
       <c r="G59" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="78"/>
+      <c r="H59" s="93"/>
     </row>
     <row r="60" spans="1:8" ht="12.3">
-      <c r="A60" s="79"/>
+      <c r="A60" s="96"/>
       <c r="B60" s="10" t="s">
         <v>212</v>
       </c>
@@ -4775,10 +4775,10 @@
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
-      <c r="H60" s="85"/>
+      <c r="H60" s="91"/>
     </row>
     <row r="61" spans="1:8" ht="12.3">
-      <c r="A61" s="79"/>
+      <c r="A61" s="96"/>
       <c r="B61" s="10" t="s">
         <v>212</v>
       </c>
@@ -4793,10 +4793,10 @@
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
-      <c r="H61" s="85"/>
+      <c r="H61" s="91"/>
     </row>
     <row r="62" spans="1:8" ht="12.3">
-      <c r="A62" s="79"/>
+      <c r="A62" s="96"/>
       <c r="B62" s="10" t="s">
         <v>215</v>
       </c>
@@ -4807,10 +4807,10 @@
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
-      <c r="H62" s="85"/>
+      <c r="H62" s="91"/>
     </row>
     <row r="63" spans="1:8" ht="12.3">
-      <c r="A63" s="79"/>
+      <c r="A63" s="96"/>
       <c r="B63" s="15" t="s">
         <v>154</v>
       </c>
@@ -4821,10 +4821,10 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
-      <c r="H63" s="85"/>
+      <c r="H63" s="91"/>
     </row>
     <row r="64" spans="1:8" ht="12.3">
-      <c r="A64" s="80"/>
+      <c r="A64" s="97"/>
       <c r="B64" s="15" t="s">
         <v>183</v>
       </c>
@@ -4835,10 +4835,10 @@
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
-      <c r="H64" s="86"/>
+      <c r="H64" s="92"/>
     </row>
     <row r="65" spans="1:8" ht="12.3">
-      <c r="A65" s="81" t="s">
+      <c r="A65" s="90" t="s">
         <v>651</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -4855,10 +4855,10 @@
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="81"/>
+      <c r="H65" s="90"/>
     </row>
     <row r="66" spans="1:8" ht="12.3">
-      <c r="A66" s="82"/>
+      <c r="A66" s="94"/>
       <c r="B66" s="10" t="s">
         <v>217</v>
       </c>
@@ -4873,10 +4873,10 @@
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="85"/>
+      <c r="H66" s="91"/>
     </row>
     <row r="67" spans="1:8" ht="12.3">
-      <c r="A67" s="82"/>
+      <c r="A67" s="94"/>
       <c r="B67" s="10" t="s">
         <v>219</v>
       </c>
@@ -4887,10 +4887,10 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="85"/>
+      <c r="H67" s="91"/>
     </row>
     <row r="68" spans="1:8" ht="12.3">
-      <c r="A68" s="82"/>
+      <c r="A68" s="94"/>
       <c r="B68" s="18" t="s">
         <v>220</v>
       </c>
@@ -4901,10 +4901,10 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="85"/>
+      <c r="H68" s="91"/>
     </row>
     <row r="69" spans="1:8" ht="12.3">
-      <c r="A69" s="82"/>
+      <c r="A69" s="94"/>
       <c r="B69" s="22" t="s">
         <v>221</v>
       </c>
@@ -4915,10 +4915,10 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="85"/>
+      <c r="H69" s="91"/>
     </row>
     <row r="70" spans="1:8" ht="12.3">
-      <c r="A70" s="82"/>
+      <c r="A70" s="94"/>
       <c r="B70" s="22" t="s">
         <v>222</v>
       </c>
@@ -4929,10 +4929,10 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="85"/>
+      <c r="H70" s="91"/>
     </row>
     <row r="71" spans="1:8" ht="12.3">
-      <c r="A71" s="82"/>
+      <c r="A71" s="94"/>
       <c r="B71" s="10" t="s">
         <v>223</v>
       </c>
@@ -4943,10 +4943,10 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="85"/>
+      <c r="H71" s="91"/>
     </row>
     <row r="72" spans="1:8" ht="12.3">
-      <c r="A72" s="82"/>
+      <c r="A72" s="94"/>
       <c r="B72" s="10" t="s">
         <v>48</v>
       </c>
@@ -4957,10 +4957,10 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="85"/>
+      <c r="H72" s="91"/>
     </row>
     <row r="73" spans="1:8" ht="12.3">
-      <c r="A73" s="83"/>
+      <c r="A73" s="95"/>
       <c r="B73" s="10" t="s">
         <v>170</v>
       </c>
@@ -4971,10 +4971,10 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="86"/>
+      <c r="H73" s="92"/>
     </row>
     <row r="74" spans="1:8" ht="12.3">
-      <c r="A74" s="78" t="s">
+      <c r="A74" s="93" t="s">
         <v>652</v>
       </c>
       <c r="B74" s="10" t="s">
@@ -4987,10 +4987,10 @@
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
-      <c r="H74" s="78"/>
+      <c r="H74" s="93"/>
     </row>
     <row r="75" spans="1:8" ht="12.3">
-      <c r="A75" s="79"/>
+      <c r="A75" s="96"/>
       <c r="B75" s="15" t="s">
         <v>225</v>
       </c>
@@ -5001,10 +5001,10 @@
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
-      <c r="H75" s="85"/>
+      <c r="H75" s="91"/>
     </row>
     <row r="76" spans="1:8" ht="12.3">
-      <c r="A76" s="79"/>
+      <c r="A76" s="96"/>
       <c r="B76" s="15" t="s">
         <v>227</v>
       </c>
@@ -5015,10 +5015,10 @@
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
       <c r="G76" s="20"/>
-      <c r="H76" s="85"/>
+      <c r="H76" s="91"/>
     </row>
     <row r="77" spans="1:8" ht="12.3">
-      <c r="A77" s="79"/>
+      <c r="A77" s="96"/>
       <c r="B77" s="10" t="s">
         <v>228</v>
       </c>
@@ -5029,10 +5029,10 @@
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
       <c r="G77" s="20"/>
-      <c r="H77" s="85"/>
+      <c r="H77" s="91"/>
     </row>
     <row r="78" spans="1:8" ht="12.3">
-      <c r="A78" s="79"/>
+      <c r="A78" s="96"/>
       <c r="B78" s="15" t="s">
         <v>229</v>
       </c>
@@ -5043,10 +5043,10 @@
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
       <c r="G78" s="20"/>
-      <c r="H78" s="85"/>
+      <c r="H78" s="91"/>
     </row>
     <row r="79" spans="1:8" ht="12.3">
-      <c r="A79" s="79"/>
+      <c r="A79" s="96"/>
       <c r="B79" s="15" t="s">
         <v>230</v>
       </c>
@@ -5057,10 +5057,10 @@
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
       <c r="G79" s="20"/>
-      <c r="H79" s="85"/>
+      <c r="H79" s="91"/>
     </row>
     <row r="80" spans="1:8" ht="12.3">
-      <c r="A80" s="79"/>
+      <c r="A80" s="96"/>
       <c r="B80" s="15" t="s">
         <v>231</v>
       </c>
@@ -5071,10 +5071,10 @@
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
       <c r="G80" s="20"/>
-      <c r="H80" s="85"/>
+      <c r="H80" s="91"/>
     </row>
     <row r="81" spans="1:8" ht="12.3">
-      <c r="A81" s="79"/>
+      <c r="A81" s="96"/>
       <c r="B81" s="10" t="s">
         <v>232</v>
       </c>
@@ -5085,10 +5085,10 @@
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
-      <c r="H81" s="85"/>
+      <c r="H81" s="91"/>
     </row>
     <row r="82" spans="1:8" ht="12.3">
-      <c r="A82" s="79"/>
+      <c r="A82" s="96"/>
       <c r="B82" s="10" t="s">
         <v>233</v>
       </c>
@@ -5099,10 +5099,10 @@
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
-      <c r="H82" s="85"/>
+      <c r="H82" s="91"/>
     </row>
     <row r="83" spans="1:8" ht="12.3">
-      <c r="A83" s="80"/>
+      <c r="A83" s="97"/>
       <c r="B83" s="6" t="s">
         <v>234</v>
       </c>
@@ -5113,10 +5113,10 @@
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
-      <c r="H83" s="86"/>
+      <c r="H83" s="92"/>
     </row>
     <row r="84" spans="1:8" ht="12.3">
-      <c r="A84" s="81" t="s">
+      <c r="A84" s="90" t="s">
         <v>657</v>
       </c>
       <c r="B84" s="10" t="s">
@@ -5129,10 +5129,10 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="87"/>
+      <c r="H84" s="98"/>
     </row>
     <row r="85" spans="1:8" ht="12.3">
-      <c r="A85" s="82"/>
+      <c r="A85" s="94"/>
       <c r="B85" s="22" t="s">
         <v>236</v>
       </c>
@@ -5143,10 +5143,10 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="85"/>
+      <c r="H85" s="91"/>
     </row>
     <row r="86" spans="1:8" ht="12.3">
-      <c r="A86" s="82"/>
+      <c r="A86" s="94"/>
       <c r="B86" s="15" t="s">
         <v>237</v>
       </c>
@@ -5157,10 +5157,10 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="85"/>
+      <c r="H86" s="91"/>
     </row>
     <row r="87" spans="1:8" ht="12.3">
-      <c r="A87" s="82"/>
+      <c r="A87" s="94"/>
       <c r="B87" s="15" t="s">
         <v>177</v>
       </c>
@@ -5171,10 +5171,10 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="85"/>
+      <c r="H87" s="91"/>
     </row>
     <row r="88" spans="1:8" ht="12.3">
-      <c r="A88" s="82"/>
+      <c r="A88" s="94"/>
       <c r="B88" s="6" t="s">
         <v>111</v>
       </c>
@@ -5185,10 +5185,10 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="85"/>
+      <c r="H88" s="91"/>
     </row>
     <row r="89" spans="1:8" ht="12.3">
-      <c r="A89" s="82"/>
+      <c r="A89" s="94"/>
       <c r="B89" s="18" t="s">
         <v>238</v>
       </c>
@@ -5199,10 +5199,10 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="85"/>
+      <c r="H89" s="91"/>
     </row>
     <row r="90" spans="1:8" ht="12.3">
-      <c r="A90" s="82"/>
+      <c r="A90" s="94"/>
       <c r="B90" s="6" t="s">
         <v>234</v>
       </c>
@@ -5213,10 +5213,10 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="85"/>
+      <c r="H90" s="91"/>
     </row>
     <row r="91" spans="1:8" ht="12.3">
-      <c r="A91" s="82"/>
+      <c r="A91" s="94"/>
       <c r="B91" s="15" t="s">
         <v>239</v>
       </c>
@@ -5227,10 +5227,10 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="85"/>
+      <c r="H91" s="91"/>
     </row>
     <row r="92" spans="1:8" ht="12.3">
-      <c r="A92" s="82"/>
+      <c r="A92" s="94"/>
       <c r="B92" s="6" t="s">
         <v>41</v>
       </c>
@@ -5241,10 +5241,10 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="85"/>
+      <c r="H92" s="91"/>
     </row>
     <row r="93" spans="1:8" ht="12.3">
-      <c r="A93" s="83"/>
+      <c r="A93" s="95"/>
       <c r="B93" s="10" t="s">
         <v>240</v>
       </c>
@@ -5255,10 +5255,10 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="86"/>
+      <c r="H93" s="92"/>
     </row>
     <row r="94" spans="1:8" ht="12.3">
-      <c r="A94" s="78" t="s">
+      <c r="A94" s="93" t="s">
         <v>653</v>
       </c>
       <c r="B94" s="18" t="s">
@@ -5275,10 +5275,10 @@
       </c>
       <c r="F94" s="20"/>
       <c r="G94" s="20"/>
-      <c r="H94" s="78"/>
+      <c r="H94" s="93"/>
     </row>
     <row r="95" spans="1:8" ht="12.3">
-      <c r="A95" s="79"/>
+      <c r="A95" s="96"/>
       <c r="B95" s="18" t="s">
         <v>243</v>
       </c>
@@ -5289,10 +5289,10 @@
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
       <c r="G95" s="20"/>
-      <c r="H95" s="85"/>
+      <c r="H95" s="91"/>
     </row>
     <row r="96" spans="1:8" ht="12.3">
-      <c r="A96" s="79"/>
+      <c r="A96" s="96"/>
       <c r="B96" s="15" t="s">
         <v>244</v>
       </c>
@@ -5303,10 +5303,10 @@
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
       <c r="G96" s="20"/>
-      <c r="H96" s="85"/>
+      <c r="H96" s="91"/>
     </row>
     <row r="97" spans="1:8" ht="12.3">
-      <c r="A97" s="79"/>
+      <c r="A97" s="96"/>
       <c r="B97" s="10" t="s">
         <v>245</v>
       </c>
@@ -5317,10 +5317,10 @@
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="20"/>
-      <c r="H97" s="85"/>
+      <c r="H97" s="91"/>
     </row>
     <row r="98" spans="1:8" ht="12.3">
-      <c r="A98" s="79"/>
+      <c r="A98" s="96"/>
       <c r="B98" s="10" t="s">
         <v>246</v>
       </c>
@@ -5331,10 +5331,10 @@
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="20"/>
-      <c r="H98" s="85"/>
+      <c r="H98" s="91"/>
     </row>
     <row r="99" spans="1:8" ht="12.3">
-      <c r="A99" s="79"/>
+      <c r="A99" s="96"/>
       <c r="B99" s="18" t="s">
         <v>247</v>
       </c>
@@ -5345,10 +5345,10 @@
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
-      <c r="H99" s="85"/>
+      <c r="H99" s="91"/>
     </row>
     <row r="100" spans="1:8" ht="12.3">
-      <c r="A100" s="79"/>
+      <c r="A100" s="96"/>
       <c r="B100" s="18" t="s">
         <v>248</v>
       </c>
@@ -5359,10 +5359,10 @@
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
-      <c r="H100" s="85"/>
+      <c r="H100" s="91"/>
     </row>
     <row r="101" spans="1:8" ht="12.3">
-      <c r="A101" s="79"/>
+      <c r="A101" s="96"/>
       <c r="B101" s="18" t="s">
         <v>249</v>
       </c>
@@ -5373,10 +5373,10 @@
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="20"/>
-      <c r="H101" s="85"/>
+      <c r="H101" s="91"/>
     </row>
     <row r="102" spans="1:8" ht="12.3">
-      <c r="A102" s="80"/>
+      <c r="A102" s="97"/>
       <c r="B102" s="18" t="s">
         <v>250</v>
       </c>
@@ -5387,10 +5387,10 @@
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="20"/>
-      <c r="H102" s="86"/>
+      <c r="H102" s="92"/>
     </row>
     <row r="103" spans="1:8" ht="12.3">
-      <c r="A103" s="81" t="s">
+      <c r="A103" s="90" t="s">
         <v>654</v>
       </c>
       <c r="B103" s="22" t="s">
@@ -5403,10 +5403,10 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="81"/>
+      <c r="H103" s="90"/>
     </row>
     <row r="104" spans="1:8" ht="12.3">
-      <c r="A104" s="82"/>
+      <c r="A104" s="94"/>
       <c r="B104" s="15" t="s">
         <v>244</v>
       </c>
@@ -5417,10 +5417,10 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="85"/>
+      <c r="H104" s="91"/>
     </row>
     <row r="105" spans="1:8" ht="12.3">
-      <c r="A105" s="82"/>
+      <c r="A105" s="94"/>
       <c r="B105" s="18" t="s">
         <v>252</v>
       </c>
@@ -5431,10 +5431,10 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
-      <c r="H105" s="85"/>
+      <c r="H105" s="91"/>
     </row>
     <row r="106" spans="1:8" ht="12.3">
-      <c r="A106" s="82"/>
+      <c r="A106" s="94"/>
       <c r="B106" s="6" t="s">
         <v>234</v>
       </c>
@@ -5445,10 +5445,10 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
-      <c r="H106" s="85"/>
+      <c r="H106" s="91"/>
     </row>
     <row r="107" spans="1:8" ht="12.3">
-      <c r="A107" s="82"/>
+      <c r="A107" s="94"/>
       <c r="B107" s="18" t="s">
         <v>253</v>
       </c>
@@ -5459,10 +5459,10 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="85"/>
+      <c r="H107" s="91"/>
     </row>
     <row r="108" spans="1:8" ht="12.3">
-      <c r="A108" s="82"/>
+      <c r="A108" s="94"/>
       <c r="B108" s="18" t="s">
         <v>254</v>
       </c>
@@ -5473,10 +5473,10 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
-      <c r="H108" s="85"/>
+      <c r="H108" s="91"/>
     </row>
     <row r="109" spans="1:8" ht="12.3">
-      <c r="A109" s="82"/>
+      <c r="A109" s="94"/>
       <c r="B109" s="15" t="s">
         <v>231</v>
       </c>
@@ -5487,10 +5487,10 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
-      <c r="H109" s="85"/>
+      <c r="H109" s="91"/>
     </row>
     <row r="110" spans="1:8" ht="12.3">
-      <c r="A110" s="82"/>
+      <c r="A110" s="94"/>
       <c r="B110" s="15" t="s">
         <v>255</v>
       </c>
@@ -5501,10 +5501,10 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
-      <c r="H110" s="85"/>
+      <c r="H110" s="91"/>
     </row>
     <row r="111" spans="1:8" ht="12.3">
-      <c r="A111" s="82"/>
+      <c r="A111" s="94"/>
       <c r="B111" s="15" t="s">
         <v>256</v>
       </c>
@@ -5515,10 +5515,10 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
-      <c r="H111" s="85"/>
+      <c r="H111" s="91"/>
     </row>
     <row r="112" spans="1:8" ht="12.3">
-      <c r="A112" s="83"/>
+      <c r="A112" s="95"/>
       <c r="B112" s="18" t="s">
         <v>257</v>
       </c>
@@ -5529,10 +5529,10 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
-      <c r="H112" s="86"/>
+      <c r="H112" s="92"/>
     </row>
     <row r="113" spans="1:8" ht="12.3">
-      <c r="A113" s="78" t="s">
+      <c r="A113" s="93" t="s">
         <v>655</v>
       </c>
       <c r="B113" s="18" t="s">
@@ -5545,10 +5545,10 @@
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
-      <c r="H113" s="78"/>
+      <c r="H113" s="93"/>
     </row>
     <row r="114" spans="1:8" ht="12.3">
-      <c r="A114" s="79"/>
+      <c r="A114" s="96"/>
       <c r="B114" s="10" t="s">
         <v>215</v>
       </c>
@@ -5559,10 +5559,10 @@
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
-      <c r="H114" s="85"/>
+      <c r="H114" s="91"/>
     </row>
     <row r="115" spans="1:8" ht="12.3">
-      <c r="A115" s="79"/>
+      <c r="A115" s="96"/>
       <c r="B115" s="10" t="s">
         <v>147</v>
       </c>
@@ -5573,10 +5573,10 @@
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
-      <c r="H115" s="85"/>
+      <c r="H115" s="91"/>
     </row>
     <row r="116" spans="1:8" ht="12.3">
-      <c r="A116" s="79"/>
+      <c r="A116" s="96"/>
       <c r="B116" s="10" t="s">
         <v>161</v>
       </c>
@@ -5587,10 +5587,10 @@
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
       <c r="G116" s="20"/>
-      <c r="H116" s="85"/>
+      <c r="H116" s="91"/>
     </row>
     <row r="117" spans="1:8" ht="12.3">
-      <c r="A117" s="79"/>
+      <c r="A117" s="96"/>
       <c r="B117" s="6" t="s">
         <v>258</v>
       </c>
@@ -5601,10 +5601,10 @@
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
-      <c r="H117" s="85"/>
+      <c r="H117" s="91"/>
     </row>
     <row r="118" spans="1:8" ht="12.3">
-      <c r="A118" s="79"/>
+      <c r="A118" s="96"/>
       <c r="B118" s="6" t="s">
         <v>259</v>
       </c>
@@ -5615,10 +5615,10 @@
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
-      <c r="H118" s="85"/>
+      <c r="H118" s="91"/>
     </row>
     <row r="119" spans="1:8" ht="12.3">
-      <c r="A119" s="79"/>
+      <c r="A119" s="96"/>
       <c r="B119" s="6" t="s">
         <v>260</v>
       </c>
@@ -5629,10 +5629,10 @@
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
       <c r="G119" s="20"/>
-      <c r="H119" s="85"/>
+      <c r="H119" s="91"/>
     </row>
     <row r="120" spans="1:8" ht="12.3">
-      <c r="A120" s="79"/>
+      <c r="A120" s="96"/>
       <c r="B120" s="6" t="s">
         <v>261</v>
       </c>
@@ -5643,10 +5643,10 @@
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
       <c r="G120" s="20"/>
-      <c r="H120" s="85"/>
+      <c r="H120" s="91"/>
     </row>
     <row r="121" spans="1:8" ht="12.3">
-      <c r="A121" s="79"/>
+      <c r="A121" s="96"/>
       <c r="B121" s="10" t="s">
         <v>262</v>
       </c>
@@ -5657,10 +5657,10 @@
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
       <c r="G121" s="20"/>
-      <c r="H121" s="85"/>
+      <c r="H121" s="91"/>
     </row>
     <row r="122" spans="1:8" ht="12.3">
-      <c r="A122" s="80"/>
+      <c r="A122" s="97"/>
       <c r="B122" s="6" t="s">
         <v>263</v>
       </c>
@@ -5671,89 +5671,70 @@
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
       <c r="G122" s="20"/>
-      <c r="H122" s="86"/>
+      <c r="H122" s="92"/>
     </row>
     <row r="123" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A123" s="84"/>
+      <c r="A123" s="99"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="H123" s="84"/>
+      <c r="H123" s="99"/>
     </row>
     <row r="124" spans="1:8" ht="12.3">
-      <c r="A124" s="84"/>
+      <c r="A124" s="99"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="H124" s="88"/>
+      <c r="H124" s="100"/>
     </row>
     <row r="125" spans="1:8" ht="12.3">
-      <c r="A125" s="84"/>
+      <c r="A125" s="99"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="H125" s="88"/>
+      <c r="H125" s="100"/>
     </row>
     <row r="126" spans="1:8" ht="12.3">
-      <c r="A126" s="84"/>
+      <c r="A126" s="99"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="H126" s="88"/>
+      <c r="H126" s="100"/>
     </row>
     <row r="127" spans="1:8" ht="12.3">
-      <c r="A127" s="84"/>
+      <c r="A127" s="99"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="H127" s="88"/>
+      <c r="H127" s="100"/>
     </row>
     <row r="128" spans="1:8" ht="12.3">
-      <c r="A128" s="84"/>
+      <c r="A128" s="99"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="H128" s="88"/>
+      <c r="H128" s="100"/>
     </row>
     <row r="129" spans="1:8" ht="12.3">
-      <c r="A129" s="84"/>
+      <c r="A129" s="99"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="H129" s="88"/>
+      <c r="H129" s="100"/>
     </row>
     <row r="130" spans="1:8" ht="12.3">
-      <c r="A130" s="84"/>
+      <c r="A130" s="99"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="H130" s="88"/>
+      <c r="H130" s="100"/>
     </row>
     <row r="131" spans="1:8" ht="12.3">
-      <c r="A131" s="84"/>
+      <c r="A131" s="99"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="H131" s="88"/>
+      <c r="H131" s="100"/>
     </row>
     <row r="132" spans="1:8" ht="12.3">
-      <c r="A132" s="84"/>
+      <c r="A132" s="99"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="H132" s="88"/>
+      <c r="H132" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H10:H16"/>
-    <mergeCell ref="H65:H73"/>
-    <mergeCell ref="H74:H83"/>
-    <mergeCell ref="H59:H64"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A83"/>
-    <mergeCell ref="H84:H93"/>
-    <mergeCell ref="H94:H102"/>
-    <mergeCell ref="H103:H112"/>
-    <mergeCell ref="H113:H122"/>
-    <mergeCell ref="H123:H132"/>
-    <mergeCell ref="H17:H24"/>
-    <mergeCell ref="H25:H33"/>
-    <mergeCell ref="H34:H43"/>
-    <mergeCell ref="H44:H52"/>
-    <mergeCell ref="H53:H58"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A113:A122"/>
@@ -5765,6 +5746,25 @@
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="A25:A33"/>
     <mergeCell ref="A34:A43"/>
+    <mergeCell ref="H94:H102"/>
+    <mergeCell ref="H103:H112"/>
+    <mergeCell ref="H113:H122"/>
+    <mergeCell ref="H123:H132"/>
+    <mergeCell ref="H17:H24"/>
+    <mergeCell ref="H25:H33"/>
+    <mergeCell ref="H34:H43"/>
+    <mergeCell ref="H44:H52"/>
+    <mergeCell ref="H53:H58"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A74:A83"/>
+    <mergeCell ref="H84:H93"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H10:H16"/>
+    <mergeCell ref="H65:H73"/>
+    <mergeCell ref="H74:H83"/>
+    <mergeCell ref="H59:H64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8203,7 +8203,7 @@
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -8272,13 +8272,13 @@
       <c r="H1" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="90" t="s">
         <v>643</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -8291,16 +8291,16 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="90" t="s">
         <v>661</v>
       </c>
-      <c r="I2" s="105"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="81"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="22" t="s">
         <v>463</v>
       </c>
@@ -8311,14 +8311,14 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="81"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="18" t="s">
         <v>464</v>
       </c>
@@ -8329,14 +8329,14 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="81"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="15" t="s">
         <v>271</v>
       </c>
@@ -8347,14 +8347,14 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="81"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="6" t="s">
         <v>465</v>
       </c>
@@ -8365,14 +8365,14 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="81"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="6" t="s">
@@ -8383,14 +8383,14 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8" s="81"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="18" t="s">
         <v>467</v>
       </c>
@@ -8401,14 +8401,14 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="81"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="18" t="s">
@@ -8419,10 +8419,10 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="85"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="81"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="10" t="s">
         <v>468</v>
       </c>
@@ -8433,10 +8433,10 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="85"/>
+      <c r="H10" s="91"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="81"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="10" t="s">
         <v>469</v>
       </c>
@@ -8447,10 +8447,10 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="86"/>
+      <c r="H11" s="92"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="90" t="s">
         <v>644</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -8463,10 +8463,10 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="81"/>
+      <c r="H12" s="90"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="82"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="22" t="s">
         <v>471</v>
       </c>
@@ -8477,10 +8477,10 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="85"/>
+      <c r="H13" s="91"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A14" s="82"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="18" t="s">
@@ -8491,10 +8491,10 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="85"/>
+      <c r="H14" s="91"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="82"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -8505,10 +8505,10 @@
       <c r="G15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="85"/>
+      <c r="H15" s="91"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="82"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -8519,10 +8519,10 @@
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="85"/>
+      <c r="H16" s="91"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="82"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="15" t="s">
         <v>474</v>
       </c>
@@ -8533,10 +8533,10 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="85"/>
+      <c r="H17" s="91"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="82"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="18" t="s">
         <v>476</v>
       </c>
@@ -8547,10 +8547,10 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="85"/>
+      <c r="H18" s="91"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="82"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="18" t="s">
         <v>477</v>
       </c>
@@ -8561,10 +8561,10 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="85"/>
+      <c r="H19" s="91"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="82"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="6" t="s">
         <v>478</v>
       </c>
@@ -8575,10 +8575,10 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="85"/>
+      <c r="H20" s="91"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="83"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="10" t="s">
         <v>480</v>
       </c>
@@ -8589,10 +8589,10 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="86"/>
+      <c r="H21" s="92"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="90" t="s">
         <v>645</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -8605,10 +8605,10 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="81"/>
+      <c r="H22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="82"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="18" t="s">
@@ -8619,10 +8619,10 @@
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="85"/>
+      <c r="H23" s="91"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="82"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="10" t="s">
         <v>483</v>
       </c>
@@ -8633,10 +8633,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="85"/>
+      <c r="H24" s="91"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="82"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="10" t="s">
         <v>292</v>
       </c>
@@ -8647,10 +8647,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="85"/>
+      <c r="H25" s="91"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="82"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="10" t="s">
         <v>484</v>
       </c>
@@ -8661,10 +8661,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="85"/>
+      <c r="H26" s="91"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="82"/>
+      <c r="A27" s="94"/>
       <c r="B27" s="10" t="s">
         <v>485</v>
       </c>
@@ -8675,10 +8675,10 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="85"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="82"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="22" t="s">
         <v>486</v>
       </c>
@@ -8689,10 +8689,10 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="85"/>
+      <c r="H28" s="91"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="82"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="18" t="s">
         <v>487</v>
       </c>
@@ -8703,10 +8703,10 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="85"/>
+      <c r="H29" s="91"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="83"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="22" t="s">
         <v>488</v>
       </c>
@@ -8717,10 +8717,10 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="86"/>
+      <c r="H30" s="92"/>
     </row>
     <row r="31" spans="1:8" ht="12.3">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="90" t="s">
         <v>646</v>
       </c>
       <c r="B31" s="7"/>
@@ -8733,10 +8733,10 @@
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="89"/>
+      <c r="H31" s="101"/>
     </row>
     <row r="32" spans="1:8" ht="12.3">
-      <c r="A32" s="82"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="6" t="s">
         <v>490</v>
       </c>
@@ -8747,10 +8747,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="90"/>
+      <c r="H32" s="102"/>
     </row>
     <row r="33" spans="1:8" ht="12.3">
-      <c r="A33" s="82"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="38" t="s">
         <v>491</v>
       </c>
@@ -8761,10 +8761,10 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="90"/>
+      <c r="H33" s="102"/>
     </row>
     <row r="34" spans="1:8" ht="12.3">
-      <c r="A34" s="82"/>
+      <c r="A34" s="94"/>
       <c r="B34" s="10" t="s">
         <v>480</v>
       </c>
@@ -8775,10 +8775,10 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="90"/>
+      <c r="H34" s="102"/>
     </row>
     <row r="35" spans="1:8" ht="12.3">
-      <c r="A35" s="82"/>
+      <c r="A35" s="94"/>
       <c r="B35" s="10" t="s">
         <v>267</v>
       </c>
@@ -8789,10 +8789,10 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="90"/>
+      <c r="H35" s="102"/>
     </row>
     <row r="36" spans="1:8" ht="12.3">
-      <c r="A36" s="82"/>
+      <c r="A36" s="94"/>
       <c r="B36" s="15" t="s">
         <v>492</v>
       </c>
@@ -8803,10 +8803,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="90"/>
+      <c r="H36" s="102"/>
     </row>
     <row r="37" spans="1:8" ht="12.3">
-      <c r="A37" s="82"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="6" t="s">
         <v>493</v>
       </c>
@@ -8817,10 +8817,10 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="90"/>
+      <c r="H37" s="102"/>
     </row>
     <row r="38" spans="1:8" ht="12.3">
-      <c r="A38" s="82"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="18" t="s">
         <v>494</v>
       </c>
@@ -8831,10 +8831,10 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="90"/>
+      <c r="H38" s="102"/>
     </row>
     <row r="39" spans="1:8" ht="12.3">
-      <c r="A39" s="82"/>
+      <c r="A39" s="94"/>
       <c r="B39" s="18" t="s">
         <v>467</v>
       </c>
@@ -8845,10 +8845,10 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="90"/>
+      <c r="H39" s="102"/>
     </row>
     <row r="40" spans="1:8" ht="12.3">
-      <c r="A40" s="83"/>
+      <c r="A40" s="95"/>
       <c r="B40" s="18" t="s">
         <v>495</v>
       </c>
@@ -8859,10 +8859,10 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="91"/>
+      <c r="H40" s="103"/>
     </row>
     <row r="41" spans="1:8" ht="12.3">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="90" t="s">
         <v>647</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -8875,10 +8875,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="81"/>
+      <c r="H41" s="90"/>
     </row>
     <row r="42" spans="1:8" ht="12.3">
-      <c r="A42" s="82"/>
+      <c r="A42" s="94"/>
       <c r="B42" s="21" t="s">
         <v>288</v>
       </c>
@@ -8889,10 +8889,10 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="85"/>
+      <c r="H42" s="91"/>
     </row>
     <row r="43" spans="1:8" ht="12.3">
-      <c r="A43" s="82"/>
+      <c r="A43" s="94"/>
       <c r="B43" s="21" t="s">
         <v>498</v>
       </c>
@@ -8903,10 +8903,10 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="85"/>
+      <c r="H43" s="91"/>
     </row>
     <row r="44" spans="1:8" ht="12.3">
-      <c r="A44" s="82"/>
+      <c r="A44" s="94"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="10" t="s">
@@ -8917,10 +8917,10 @@
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="85"/>
+      <c r="H44" s="91"/>
     </row>
     <row r="45" spans="1:8" ht="12.3">
-      <c r="A45" s="82"/>
+      <c r="A45" s="94"/>
       <c r="B45" s="21" t="s">
         <v>500</v>
       </c>
@@ -8931,10 +8931,10 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="85"/>
+      <c r="H45" s="91"/>
     </row>
     <row r="46" spans="1:8" ht="12.3">
-      <c r="A46" s="82"/>
+      <c r="A46" s="94"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="10" t="s">
@@ -8945,10 +8945,10 @@
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="85"/>
+      <c r="H46" s="91"/>
     </row>
     <row r="47" spans="1:8" ht="12.3">
-      <c r="A47" s="82"/>
+      <c r="A47" s="94"/>
       <c r="B47" s="22" t="s">
         <v>502</v>
       </c>
@@ -8959,10 +8959,10 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="85"/>
+      <c r="H47" s="91"/>
     </row>
     <row r="48" spans="1:8" ht="12.3">
-      <c r="A48" s="82"/>
+      <c r="A48" s="94"/>
       <c r="B48" s="10" t="s">
         <v>503</v>
       </c>
@@ -8973,10 +8973,10 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="85"/>
+      <c r="H48" s="91"/>
     </row>
     <row r="49" spans="1:12" ht="12.3">
-      <c r="A49" s="82"/>
+      <c r="A49" s="94"/>
       <c r="B49" s="10" t="s">
         <v>286</v>
       </c>
@@ -8987,10 +8987,10 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="85"/>
+      <c r="H49" s="91"/>
     </row>
     <row r="50" spans="1:12" ht="12.3">
-      <c r="A50" s="83"/>
+      <c r="A50" s="95"/>
       <c r="B50" s="18" t="s">
         <v>504</v>
       </c>
@@ -9001,10 +9001,10 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="86"/>
+      <c r="H50" s="92"/>
     </row>
     <row r="51" spans="1:12" ht="12.3">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="90" t="s">
         <v>648</v>
       </c>
       <c r="B51" s="8"/>
@@ -9017,11 +9017,11 @@
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="89"/>
-      <c r="L51" s="84"/>
+      <c r="H51" s="101"/>
+      <c r="L51" s="99"/>
     </row>
     <row r="52" spans="1:12" ht="12.3">
-      <c r="A52" s="82"/>
+      <c r="A52" s="94"/>
       <c r="B52" s="10" t="s">
         <v>506</v>
       </c>
@@ -9032,11 +9032,11 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="90"/>
-      <c r="L52" s="88"/>
+      <c r="H52" s="102"/>
+      <c r="L52" s="100"/>
     </row>
     <row r="53" spans="1:12" ht="12.3">
-      <c r="A53" s="82"/>
+      <c r="A53" s="94"/>
       <c r="B53" s="22" t="s">
         <v>507</v>
       </c>
@@ -9047,11 +9047,11 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="90"/>
-      <c r="L53" s="88"/>
+      <c r="H53" s="102"/>
+      <c r="L53" s="100"/>
     </row>
     <row r="54" spans="1:12" ht="12.3">
-      <c r="A54" s="82"/>
+      <c r="A54" s="94"/>
       <c r="B54" s="18" t="s">
         <v>464</v>
       </c>
@@ -9062,11 +9062,11 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="90"/>
-      <c r="L54" s="88"/>
+      <c r="H54" s="102"/>
+      <c r="L54" s="100"/>
     </row>
     <row r="55" spans="1:12" ht="12.3">
-      <c r="A55" s="82"/>
+      <c r="A55" s="94"/>
       <c r="B55" s="15" t="s">
         <v>509</v>
       </c>
@@ -9077,11 +9077,11 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="90"/>
-      <c r="L55" s="88"/>
+      <c r="H55" s="102"/>
+      <c r="L55" s="100"/>
     </row>
     <row r="56" spans="1:12" ht="12.3">
-      <c r="A56" s="82"/>
+      <c r="A56" s="94"/>
       <c r="B56" s="18" t="s">
         <v>510</v>
       </c>
@@ -9092,11 +9092,11 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="90"/>
-      <c r="L56" s="88"/>
+      <c r="H56" s="102"/>
+      <c r="L56" s="100"/>
     </row>
     <row r="57" spans="1:12" ht="12.3">
-      <c r="A57" s="82"/>
+      <c r="A57" s="94"/>
       <c r="B57" s="18" t="s">
         <v>512</v>
       </c>
@@ -9107,11 +9107,11 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="90"/>
-      <c r="L57" s="88"/>
+      <c r="H57" s="102"/>
+      <c r="L57" s="100"/>
     </row>
     <row r="58" spans="1:12" ht="12.3">
-      <c r="A58" s="83"/>
+      <c r="A58" s="95"/>
       <c r="B58" s="18" t="s">
         <v>514</v>
       </c>
@@ -9122,11 +9122,11 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="91"/>
-      <c r="L58" s="88"/>
+      <c r="H58" s="103"/>
+      <c r="L58" s="100"/>
     </row>
     <row r="59" spans="1:12" ht="12.3">
-      <c r="A59" s="81" t="s">
+      <c r="A59" s="90" t="s">
         <v>649</v>
       </c>
       <c r="B59" s="18" t="s">
@@ -9139,11 +9139,11 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="81"/>
-      <c r="L59" s="84"/>
+      <c r="H59" s="90"/>
+      <c r="L59" s="99"/>
     </row>
     <row r="60" spans="1:12" ht="12.3">
-      <c r="A60" s="82"/>
+      <c r="A60" s="94"/>
       <c r="B60" s="10" t="s">
         <v>516</v>
       </c>
@@ -9154,11 +9154,11 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="85"/>
-      <c r="L60" s="88"/>
+      <c r="H60" s="91"/>
+      <c r="L60" s="100"/>
     </row>
     <row r="61" spans="1:12" ht="12.3">
-      <c r="A61" s="82"/>
+      <c r="A61" s="94"/>
       <c r="B61" s="18" t="s">
         <v>517</v>
       </c>
@@ -9169,11 +9169,11 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="85"/>
-      <c r="L61" s="88"/>
+      <c r="H61" s="91"/>
+      <c r="L61" s="100"/>
     </row>
     <row r="62" spans="1:12" ht="12.3">
-      <c r="A62" s="82"/>
+      <c r="A62" s="94"/>
       <c r="B62" s="10" t="s">
         <v>518</v>
       </c>
@@ -9184,11 +9184,11 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="85"/>
-      <c r="L62" s="88"/>
+      <c r="H62" s="91"/>
+      <c r="L62" s="100"/>
     </row>
     <row r="63" spans="1:12" ht="12.3">
-      <c r="A63" s="82"/>
+      <c r="A63" s="94"/>
       <c r="B63" s="18" t="s">
         <v>520</v>
       </c>
@@ -9199,11 +9199,11 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="85"/>
-      <c r="L63" s="88"/>
+      <c r="H63" s="91"/>
+      <c r="L63" s="100"/>
     </row>
     <row r="64" spans="1:12" ht="12.3">
-      <c r="A64" s="82"/>
+      <c r="A64" s="94"/>
       <c r="B64" s="6" t="s">
         <v>522</v>
       </c>
@@ -9214,11 +9214,11 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="85"/>
-      <c r="L64" s="88"/>
+      <c r="H64" s="91"/>
+      <c r="L64" s="100"/>
     </row>
     <row r="65" spans="1:12" ht="12.3">
-      <c r="A65" s="82"/>
+      <c r="A65" s="94"/>
       <c r="B65" s="22" t="s">
         <v>523</v>
       </c>
@@ -9229,11 +9229,11 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="85"/>
-      <c r="L65" s="88"/>
+      <c r="H65" s="91"/>
+      <c r="L65" s="100"/>
     </row>
     <row r="66" spans="1:12" ht="12.3">
-      <c r="A66" s="82"/>
+      <c r="A66" s="94"/>
       <c r="B66" s="18" t="s">
         <v>524</v>
       </c>
@@ -9244,11 +9244,11 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="85"/>
-      <c r="L66" s="88"/>
+      <c r="H66" s="91"/>
+      <c r="L66" s="100"/>
     </row>
     <row r="67" spans="1:12" ht="12.3">
-      <c r="A67" s="82"/>
+      <c r="A67" s="94"/>
       <c r="B67" s="22" t="s">
         <v>525</v>
       </c>
@@ -9259,11 +9259,11 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="85"/>
-      <c r="L67" s="88"/>
+      <c r="H67" s="91"/>
+      <c r="L67" s="100"/>
     </row>
     <row r="68" spans="1:12" ht="12.3">
-      <c r="A68" s="83"/>
+      <c r="A68" s="95"/>
       <c r="B68" s="6" t="s">
         <v>526</v>
       </c>
@@ -9274,11 +9274,11 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="86"/>
-      <c r="L68" s="88"/>
+      <c r="H68" s="92"/>
+      <c r="L68" s="100"/>
     </row>
     <row r="69" spans="1:12" ht="12.3">
-      <c r="A69" s="81" t="s">
+      <c r="A69" s="90" t="s">
         <v>650</v>
       </c>
       <c r="B69" s="15" t="s">
@@ -9291,10 +9291,10 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="81"/>
+      <c r="H69" s="90"/>
     </row>
     <row r="70" spans="1:12" ht="12.3">
-      <c r="A70" s="82"/>
+      <c r="A70" s="94"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -9305,10 +9305,10 @@
       <c r="G70" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="H70" s="85"/>
+      <c r="H70" s="91"/>
     </row>
     <row r="71" spans="1:12" ht="12.3">
-      <c r="A71" s="82"/>
+      <c r="A71" s="94"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="10" t="s">
@@ -9319,10 +9319,10 @@
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="85"/>
+      <c r="H71" s="91"/>
     </row>
     <row r="72" spans="1:12" ht="12.3">
-      <c r="A72" s="82"/>
+      <c r="A72" s="94"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="10" t="s">
@@ -9333,10 +9333,10 @@
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="85"/>
+      <c r="H72" s="91"/>
     </row>
     <row r="73" spans="1:12" ht="12.3">
-      <c r="A73" s="82"/>
+      <c r="A73" s="94"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="18" t="s">
@@ -9347,10 +9347,10 @@
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="85"/>
+      <c r="H73" s="91"/>
     </row>
     <row r="74" spans="1:12" ht="12.3">
-      <c r="A74" s="82"/>
+      <c r="A74" s="94"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="6" t="s">
@@ -9361,10 +9361,10 @@
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="85"/>
+      <c r="H74" s="91"/>
     </row>
     <row r="75" spans="1:12" ht="12.3">
-      <c r="A75" s="82"/>
+      <c r="A75" s="94"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="21" t="s">
@@ -9375,10 +9375,10 @@
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="85"/>
+      <c r="H75" s="91"/>
     </row>
     <row r="76" spans="1:12" ht="12.3">
-      <c r="A76" s="82"/>
+      <c r="A76" s="94"/>
       <c r="B76" s="10" t="s">
         <v>536</v>
       </c>
@@ -9389,10 +9389,10 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="85"/>
+      <c r="H76" s="91"/>
     </row>
     <row r="77" spans="1:12" ht="12.3">
-      <c r="A77" s="82"/>
+      <c r="A77" s="94"/>
       <c r="B77" s="10" t="s">
         <v>360</v>
       </c>
@@ -9403,10 +9403,10 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="85"/>
+      <c r="H77" s="91"/>
     </row>
     <row r="78" spans="1:12" ht="12.3">
-      <c r="A78" s="83"/>
+      <c r="A78" s="95"/>
       <c r="B78" s="6" t="s">
         <v>537</v>
       </c>
@@ -9417,10 +9417,10 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="86"/>
+      <c r="H78" s="92"/>
     </row>
     <row r="79" spans="1:12" ht="12.3">
-      <c r="A79" s="81" t="s">
+      <c r="A79" s="90" t="s">
         <v>651</v>
       </c>
       <c r="B79" s="22" t="s">
@@ -9433,10 +9433,10 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="81"/>
+      <c r="H79" s="90"/>
     </row>
     <row r="80" spans="1:12" ht="12.3">
-      <c r="A80" s="82"/>
+      <c r="A80" s="94"/>
       <c r="B80" s="18" t="s">
         <v>539</v>
       </c>
@@ -9447,10 +9447,10 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="85"/>
+      <c r="H80" s="91"/>
     </row>
     <row r="81" spans="1:8" ht="12.3">
-      <c r="A81" s="82"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="6" t="s">
         <v>540</v>
       </c>
@@ -9461,10 +9461,10 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="85"/>
+      <c r="H81" s="91"/>
     </row>
     <row r="82" spans="1:8" ht="12.3">
-      <c r="A82" s="82"/>
+      <c r="A82" s="94"/>
       <c r="B82" s="6" t="s">
         <v>541</v>
       </c>
@@ -9475,10 +9475,10 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="85"/>
+      <c r="H82" s="91"/>
     </row>
     <row r="83" spans="1:8" ht="12.3">
-      <c r="A83" s="82"/>
+      <c r="A83" s="94"/>
       <c r="B83" s="15" t="s">
         <v>542</v>
       </c>
@@ -9489,10 +9489,10 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="85"/>
+      <c r="H83" s="91"/>
     </row>
     <row r="84" spans="1:8" ht="12.3">
-      <c r="A84" s="82"/>
+      <c r="A84" s="94"/>
       <c r="B84" s="18" t="s">
         <v>543</v>
       </c>
@@ -9503,10 +9503,10 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="85"/>
+      <c r="H84" s="91"/>
     </row>
     <row r="85" spans="1:8" ht="12.3">
-      <c r="A85" s="82"/>
+      <c r="A85" s="94"/>
       <c r="B85" s="22" t="s">
         <v>544</v>
       </c>
@@ -9517,10 +9517,10 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="85"/>
+      <c r="H85" s="91"/>
     </row>
     <row r="86" spans="1:8" ht="12.3">
-      <c r="A86" s="82"/>
+      <c r="A86" s="94"/>
       <c r="B86" s="10" t="s">
         <v>545</v>
       </c>
@@ -9531,10 +9531,10 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="85"/>
+      <c r="H86" s="91"/>
     </row>
     <row r="87" spans="1:8" ht="12.3">
-      <c r="A87" s="82"/>
+      <c r="A87" s="94"/>
       <c r="B87" s="10" t="s">
         <v>546</v>
       </c>
@@ -9545,10 +9545,10 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="85"/>
+      <c r="H87" s="91"/>
     </row>
     <row r="88" spans="1:8" ht="12.3">
-      <c r="A88" s="83"/>
+      <c r="A88" s="95"/>
       <c r="B88" s="10" t="s">
         <v>547</v>
       </c>
@@ -9559,10 +9559,10 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="86"/>
+      <c r="H88" s="92"/>
     </row>
     <row r="89" spans="1:8" ht="12.3">
-      <c r="A89" s="81" t="s">
+      <c r="A89" s="90" t="s">
         <v>652</v>
       </c>
       <c r="B89" s="22" t="s">
@@ -9575,10 +9575,10 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="81"/>
+      <c r="H89" s="90"/>
     </row>
     <row r="90" spans="1:8" ht="12.3">
-      <c r="A90" s="82"/>
+      <c r="A90" s="94"/>
       <c r="B90" s="15" t="s">
         <v>548</v>
       </c>
@@ -9589,10 +9589,10 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="85"/>
+      <c r="H90" s="91"/>
     </row>
     <row r="91" spans="1:8" ht="12.3">
-      <c r="A91" s="82"/>
+      <c r="A91" s="94"/>
       <c r="B91" s="6" t="s">
         <v>549</v>
       </c>
@@ -9603,10 +9603,10 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="85"/>
+      <c r="H91" s="91"/>
     </row>
     <row r="92" spans="1:8" ht="12.3">
-      <c r="A92" s="82"/>
+      <c r="A92" s="94"/>
       <c r="B92" s="6" t="s">
         <v>541</v>
       </c>
@@ -9617,10 +9617,10 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="85"/>
+      <c r="H92" s="91"/>
     </row>
     <row r="93" spans="1:8" ht="12.3">
-      <c r="A93" s="82"/>
+      <c r="A93" s="94"/>
       <c r="B93" s="18" t="s">
         <v>550</v>
       </c>
@@ -9631,10 +9631,10 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="85"/>
+      <c r="H93" s="91"/>
     </row>
     <row r="94" spans="1:8" ht="12.3">
-      <c r="A94" s="82"/>
+      <c r="A94" s="94"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="18" t="s">
@@ -9645,10 +9645,10 @@
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="85"/>
+      <c r="H94" s="91"/>
     </row>
     <row r="95" spans="1:8" ht="12.3">
-      <c r="A95" s="82"/>
+      <c r="A95" s="94"/>
       <c r="B95" s="10" t="s">
         <v>551</v>
       </c>
@@ -9659,10 +9659,10 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="85"/>
+      <c r="H95" s="91"/>
     </row>
     <row r="96" spans="1:8" ht="12.3">
-      <c r="A96" s="82"/>
+      <c r="A96" s="94"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="6" t="s">
@@ -9673,10 +9673,10 @@
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="85"/>
+      <c r="H96" s="91"/>
     </row>
     <row r="97" spans="1:8" ht="12.3">
-      <c r="A97" s="83"/>
+      <c r="A97" s="95"/>
       <c r="B97" s="18" t="s">
         <v>553</v>
       </c>
@@ -9687,10 +9687,10 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
-      <c r="H97" s="86"/>
+      <c r="H97" s="92"/>
     </row>
     <row r="98" spans="1:8" ht="12.3">
-      <c r="A98" s="81" t="s">
+      <c r="A98" s="90" t="s">
         <v>657</v>
       </c>
       <c r="B98" s="10" t="s">
@@ -9703,10 +9703,10 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
-      <c r="H98" s="81"/>
+      <c r="H98" s="90"/>
     </row>
     <row r="99" spans="1:8" ht="12.3">
-      <c r="A99" s="82"/>
+      <c r="A99" s="94"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="10" t="s">
@@ -9717,10 +9717,10 @@
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
-      <c r="H99" s="85"/>
+      <c r="H99" s="91"/>
     </row>
     <row r="100" spans="1:8" ht="12.3">
-      <c r="A100" s="82"/>
+      <c r="A100" s="94"/>
       <c r="B100" s="22" t="s">
         <v>557</v>
       </c>
@@ -9731,10 +9731,10 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
-      <c r="H100" s="85"/>
+      <c r="H100" s="91"/>
     </row>
     <row r="101" spans="1:8" ht="12.3">
-      <c r="A101" s="82"/>
+      <c r="A101" s="94"/>
       <c r="B101" s="6" t="s">
         <v>558</v>
       </c>
@@ -9745,10 +9745,10 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="85"/>
+      <c r="H101" s="91"/>
     </row>
     <row r="102" spans="1:8" ht="12.3">
-      <c r="A102" s="82"/>
+      <c r="A102" s="94"/>
       <c r="B102" s="21" t="s">
         <v>559</v>
       </c>
@@ -9759,10 +9759,10 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="85"/>
+      <c r="H102" s="91"/>
     </row>
     <row r="103" spans="1:8" ht="12.3">
-      <c r="A103" s="82"/>
+      <c r="A103" s="94"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="10" t="s">
@@ -9773,10 +9773,10 @@
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="85"/>
+      <c r="H103" s="91"/>
     </row>
     <row r="104" spans="1:8" ht="12.3">
-      <c r="A104" s="82"/>
+      <c r="A104" s="94"/>
       <c r="B104" s="38" t="s">
         <v>561</v>
       </c>
@@ -9787,10 +9787,10 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="85"/>
+      <c r="H104" s="91"/>
     </row>
     <row r="105" spans="1:8" ht="12.3">
-      <c r="A105" s="82"/>
+      <c r="A105" s="94"/>
       <c r="B105" s="6" t="s">
         <v>562</v>
       </c>
@@ -9801,10 +9801,10 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
-      <c r="H105" s="85"/>
+      <c r="H105" s="91"/>
     </row>
     <row r="106" spans="1:8" ht="12.3">
-      <c r="A106" s="82"/>
+      <c r="A106" s="94"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="10" t="s">
@@ -9815,10 +9815,10 @@
       </c>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
-      <c r="H106" s="85"/>
+      <c r="H106" s="91"/>
     </row>
     <row r="107" spans="1:8" ht="12.3">
-      <c r="A107" s="83"/>
+      <c r="A107" s="95"/>
       <c r="B107" s="6" t="s">
         <v>564</v>
       </c>
@@ -9829,10 +9829,10 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="86"/>
+      <c r="H107" s="92"/>
     </row>
     <row r="108" spans="1:8" ht="12.3">
-      <c r="A108" s="81" t="s">
+      <c r="A108" s="90" t="s">
         <v>653</v>
       </c>
       <c r="B108" s="8"/>
@@ -9845,10 +9845,10 @@
       </c>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
-      <c r="H108" s="81"/>
+      <c r="H108" s="90"/>
     </row>
     <row r="109" spans="1:8" ht="12.3">
-      <c r="A109" s="82"/>
+      <c r="A109" s="94"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="10" t="s">
@@ -9859,10 +9859,10 @@
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
-      <c r="H109" s="85"/>
+      <c r="H109" s="91"/>
     </row>
     <row r="110" spans="1:8" ht="12.3">
-      <c r="A110" s="82"/>
+      <c r="A110" s="94"/>
       <c r="B110" s="10" t="s">
         <v>567</v>
       </c>
@@ -9873,10 +9873,10 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
-      <c r="H110" s="85"/>
+      <c r="H110" s="91"/>
     </row>
     <row r="111" spans="1:8" ht="12.3">
-      <c r="A111" s="82"/>
+      <c r="A111" s="94"/>
       <c r="B111" s="21" t="s">
         <v>568</v>
       </c>
@@ -9887,10 +9887,10 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
-      <c r="H111" s="85"/>
+      <c r="H111" s="91"/>
     </row>
     <row r="112" spans="1:8" ht="12.3">
-      <c r="A112" s="82"/>
+      <c r="A112" s="94"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="10" t="s">
@@ -9901,10 +9901,10 @@
       </c>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
-      <c r="H112" s="85"/>
+      <c r="H112" s="91"/>
     </row>
     <row r="113" spans="1:8" ht="12.3">
-      <c r="A113" s="82"/>
+      <c r="A113" s="94"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="6" t="s">
@@ -9915,10 +9915,10 @@
       </c>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
-      <c r="H113" s="85"/>
+      <c r="H113" s="91"/>
     </row>
     <row r="114" spans="1:8" ht="12.3">
-      <c r="A114" s="82"/>
+      <c r="A114" s="94"/>
       <c r="B114" s="22" t="s">
         <v>571</v>
       </c>
@@ -9929,10 +9929,10 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
-      <c r="H114" s="85"/>
+      <c r="H114" s="91"/>
     </row>
     <row r="115" spans="1:8" ht="12.3">
-      <c r="A115" s="82"/>
+      <c r="A115" s="94"/>
       <c r="B115" s="15" t="s">
         <v>572</v>
       </c>
@@ -9943,10 +9943,10 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
-      <c r="H115" s="85"/>
+      <c r="H115" s="91"/>
     </row>
     <row r="116" spans="1:8" ht="12.3">
-      <c r="A116" s="82"/>
+      <c r="A116" s="94"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="10" t="s">
@@ -9957,10 +9957,10 @@
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
-      <c r="H116" s="85"/>
+      <c r="H116" s="91"/>
     </row>
     <row r="117" spans="1:8" ht="12.3">
-      <c r="A117" s="83"/>
+      <c r="A117" s="95"/>
       <c r="B117" s="10" t="s">
         <v>574</v>
       </c>
@@ -9971,10 +9971,10 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="86"/>
+      <c r="H117" s="92"/>
     </row>
     <row r="118" spans="1:8" ht="12.3">
-      <c r="A118" s="81" t="s">
+      <c r="A118" s="90" t="s">
         <v>654</v>
       </c>
       <c r="B118" s="18" t="s">
@@ -9987,10 +9987,10 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
-      <c r="H118" s="81"/>
+      <c r="H118" s="90"/>
     </row>
     <row r="119" spans="1:8" ht="12.3">
-      <c r="A119" s="82"/>
+      <c r="A119" s="94"/>
       <c r="B119" s="10" t="s">
         <v>576</v>
       </c>
@@ -10001,10 +10001,10 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
-      <c r="H119" s="85"/>
+      <c r="H119" s="91"/>
     </row>
     <row r="120" spans="1:8" ht="12.3">
-      <c r="A120" s="82"/>
+      <c r="A120" s="94"/>
       <c r="B120" s="22" t="s">
         <v>577</v>
       </c>
@@ -10015,10 +10015,10 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
-      <c r="H120" s="85"/>
+      <c r="H120" s="91"/>
     </row>
     <row r="121" spans="1:8" ht="12.3">
-      <c r="A121" s="82"/>
+      <c r="A121" s="94"/>
       <c r="B121" s="22" t="s">
         <v>578</v>
       </c>
@@ -10029,10 +10029,10 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
-      <c r="H121" s="85"/>
+      <c r="H121" s="91"/>
     </row>
     <row r="122" spans="1:8" ht="12.3">
-      <c r="A122" s="82"/>
+      <c r="A122" s="94"/>
       <c r="B122" s="22" t="s">
         <v>579</v>
       </c>
@@ -10043,10 +10043,10 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
-      <c r="H122" s="85"/>
+      <c r="H122" s="91"/>
     </row>
     <row r="123" spans="1:8" ht="12.3">
-      <c r="A123" s="82"/>
+      <c r="A123" s="94"/>
       <c r="B123" s="18" t="s">
         <v>580</v>
       </c>
@@ -10057,10 +10057,10 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
-      <c r="H123" s="85"/>
+      <c r="H123" s="91"/>
     </row>
     <row r="124" spans="1:8" ht="12.3">
-      <c r="A124" s="82"/>
+      <c r="A124" s="94"/>
       <c r="B124" s="18" t="s">
         <v>581</v>
       </c>
@@ -10071,10 +10071,10 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
-      <c r="H124" s="85"/>
+      <c r="H124" s="91"/>
     </row>
     <row r="125" spans="1:8" ht="12.3">
-      <c r="A125" s="82"/>
+      <c r="A125" s="94"/>
       <c r="B125" s="6" t="s">
         <v>582</v>
       </c>
@@ -10085,10 +10085,10 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
-      <c r="H125" s="85"/>
+      <c r="H125" s="91"/>
     </row>
     <row r="126" spans="1:8" ht="12.3">
-      <c r="A126" s="82"/>
+      <c r="A126" s="94"/>
       <c r="B126" s="6" t="s">
         <v>540</v>
       </c>
@@ -10099,10 +10099,10 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
-      <c r="H126" s="85"/>
+      <c r="H126" s="91"/>
     </row>
     <row r="127" spans="1:8" ht="12.3">
-      <c r="A127" s="83"/>
+      <c r="A127" s="95"/>
       <c r="B127" s="22" t="s">
         <v>544</v>
       </c>
@@ -10113,10 +10113,10 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
-      <c r="H127" s="86"/>
+      <c r="H127" s="92"/>
     </row>
     <row r="128" spans="1:8" ht="12.3">
-      <c r="A128" s="81" t="s">
+      <c r="A128" s="90" t="s">
         <v>655</v>
       </c>
       <c r="B128" s="8"/>
@@ -10129,10 +10129,10 @@
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
-      <c r="H128" s="81"/>
+      <c r="H128" s="90"/>
     </row>
     <row r="129" spans="1:8" ht="12.3">
-      <c r="A129" s="82"/>
+      <c r="A129" s="94"/>
       <c r="B129" s="15" t="s">
         <v>584</v>
       </c>
@@ -10143,10 +10143,10 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
-      <c r="H129" s="85"/>
+      <c r="H129" s="91"/>
     </row>
     <row r="130" spans="1:8" ht="12.3">
-      <c r="A130" s="82"/>
+      <c r="A130" s="94"/>
       <c r="B130" s="18" t="s">
         <v>585</v>
       </c>
@@ -10157,10 +10157,10 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
-      <c r="H130" s="85"/>
+      <c r="H130" s="91"/>
     </row>
     <row r="131" spans="1:8" ht="12.3">
-      <c r="A131" s="82"/>
+      <c r="A131" s="94"/>
       <c r="B131" s="10" t="s">
         <v>287</v>
       </c>
@@ -10171,10 +10171,10 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
-      <c r="H131" s="85"/>
+      <c r="H131" s="91"/>
     </row>
     <row r="132" spans="1:8" ht="12.3">
-      <c r="A132" s="82"/>
+      <c r="A132" s="94"/>
       <c r="B132" s="18" t="s">
         <v>586</v>
       </c>
@@ -10185,10 +10185,10 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
-      <c r="H132" s="85"/>
+      <c r="H132" s="91"/>
     </row>
     <row r="133" spans="1:8" ht="12.3">
-      <c r="A133" s="82"/>
+      <c r="A133" s="94"/>
       <c r="B133" s="40" t="s">
         <v>587</v>
       </c>
@@ -10199,10 +10199,10 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
-      <c r="H133" s="85"/>
+      <c r="H133" s="91"/>
     </row>
     <row r="134" spans="1:8" ht="12.3">
-      <c r="A134" s="82"/>
+      <c r="A134" s="94"/>
       <c r="B134" s="10" t="s">
         <v>588</v>
       </c>
@@ -10213,10 +10213,10 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
-      <c r="H134" s="85"/>
+      <c r="H134" s="91"/>
     </row>
     <row r="135" spans="1:8" ht="12.3">
-      <c r="A135" s="82"/>
+      <c r="A135" s="94"/>
       <c r="B135" s="21" t="s">
         <v>589</v>
       </c>
@@ -10227,10 +10227,10 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
-      <c r="H135" s="85"/>
+      <c r="H135" s="91"/>
     </row>
     <row r="136" spans="1:8" ht="12.3">
-      <c r="A136" s="82"/>
+      <c r="A136" s="94"/>
       <c r="B136" s="10" t="s">
         <v>590</v>
       </c>
@@ -10241,10 +10241,10 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
-      <c r="H136" s="85"/>
+      <c r="H136" s="91"/>
     </row>
     <row r="137" spans="1:8" ht="12.3">
-      <c r="A137" s="83"/>
+      <c r="A137" s="95"/>
       <c r="B137" s="22" t="s">
         <v>591</v>
       </c>
@@ -10255,10 +10255,24 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
-      <c r="H137" s="86"/>
+      <c r="H137" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A128:A137"/>
+    <mergeCell ref="A118:A127"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="A108:A117"/>
+    <mergeCell ref="A98:A107"/>
+    <mergeCell ref="A89:A97"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="A69:A78"/>
     <mergeCell ref="H2:H11"/>
     <mergeCell ref="L51:L58"/>
     <mergeCell ref="L59:L68"/>
@@ -10275,20 +10289,6 @@
     <mergeCell ref="H118:H127"/>
     <mergeCell ref="H59:H68"/>
     <mergeCell ref="H69:H78"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A31:A40"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="A128:A137"/>
-    <mergeCell ref="A118:A127"/>
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="A108:A117"/>
-    <mergeCell ref="A98:A107"/>
-    <mergeCell ref="A89:A97"/>
-    <mergeCell ref="A79:A88"/>
-    <mergeCell ref="A69:A78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10341,13 +10341,13 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="107" t="s">
         <v>643</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -10364,16 +10364,16 @@
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="90" t="s">
         <v>661</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="93"/>
+      <c r="A3" s="108"/>
       <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
@@ -10388,14 +10388,14 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="85"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
+      <c r="H3" s="91"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="93"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
@@ -10410,14 +10410,14 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="85"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
+      <c r="H4" s="91"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="93"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
@@ -10428,14 +10428,14 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="85"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
+      <c r="H5" s="91"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="93"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
@@ -10446,14 +10446,14 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="85"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="H6" s="91"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="93"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="15" t="s">
         <v>25</v>
       </c>
@@ -10464,14 +10464,14 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="85"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="H7" s="91"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="94"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="15" t="s">
         <v>28</v>
       </c>
@@ -10482,14 +10482,14 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="86"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="H8" s="92"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="104" t="s">
         <v>644</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -10510,10 +10510,10 @@
       <c r="G9" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="78"/>
+      <c r="H9" s="93"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="96"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="15" t="s">
         <v>34</v>
       </c>
@@ -10532,10 +10532,10 @@
       <c r="G10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="85"/>
+      <c r="H10" s="91"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="96"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="10" t="s">
         <v>37</v>
       </c>
@@ -10550,10 +10550,10 @@
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="85"/>
+      <c r="H11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="96"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
@@ -10564,10 +10564,10 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="85"/>
+      <c r="H12" s="91"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="97"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="10" t="s">
         <v>39</v>
       </c>
@@ -10578,10 +10578,10 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="86"/>
+      <c r="H13" s="92"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="107" t="s">
         <v>645</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -10594,10 +10594,10 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="81"/>
+      <c r="H14" s="90"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="93"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
@@ -10608,10 +10608,10 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="85"/>
+      <c r="H15" s="91"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" s="93"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="15" t="s">
         <v>42</v>
       </c>
@@ -10622,10 +10622,10 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="85"/>
+      <c r="H16" s="91"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="93"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="18" t="s">
         <v>43</v>
       </c>
@@ -10636,10 +10636,10 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="85"/>
+      <c r="H17" s="91"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="93"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
@@ -10650,10 +10650,10 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="85"/>
+      <c r="H18" s="91"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="93"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="10" t="s">
         <v>45</v>
       </c>
@@ -10664,10 +10664,10 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="85"/>
+      <c r="H19" s="91"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="93"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="15" t="s">
         <v>46</v>
       </c>
@@ -10678,10 +10678,10 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="85"/>
+      <c r="H20" s="91"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="93"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="15" t="s">
         <v>47</v>
       </c>
@@ -10692,10 +10692,10 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="85"/>
+      <c r="H21" s="91"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="93"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="10" t="s">
         <v>48</v>
       </c>
@@ -10706,10 +10706,10 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="85"/>
+      <c r="H22" s="91"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="94"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="15" t="s">
         <v>49</v>
       </c>
@@ -10720,10 +10720,10 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="86"/>
+      <c r="H23" s="92"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="104" t="s">
         <v>646</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -10740,10 +10740,10 @@
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="78"/>
+      <c r="H24" s="93"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="96"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="10" t="s">
         <v>52</v>
       </c>
@@ -10758,10 +10758,10 @@
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="85"/>
+      <c r="H25" s="91"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="96"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="21" t="s">
         <v>54</v>
       </c>
@@ -10776,10 +10776,10 @@
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="85"/>
+      <c r="H26" s="91"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="96"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="10" t="s">
         <v>48</v>
       </c>
@@ -10794,10 +10794,10 @@
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="85"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="97"/>
+      <c r="A28" s="106"/>
       <c r="B28" s="18" t="s">
         <v>57</v>
       </c>
@@ -10812,10 +10812,10 @@
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
-      <c r="H28" s="86"/>
+      <c r="H28" s="92"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="107" t="s">
         <v>647</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -10832,10 +10832,10 @@
       <c r="G29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="81"/>
+      <c r="H29" s="90"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="93"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="21" t="s">
         <v>59</v>
       </c>
@@ -10850,10 +10850,10 @@
       <c r="G30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="85"/>
+      <c r="H30" s="91"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="93"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="10" t="s">
         <v>61</v>
       </c>
@@ -10864,10 +10864,10 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="85"/>
+      <c r="H31" s="91"/>
     </row>
     <row r="32" spans="1:8" ht="12.3">
-      <c r="A32" s="93"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="10" t="s">
         <v>62</v>
       </c>
@@ -10878,10 +10878,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="85"/>
+      <c r="H32" s="91"/>
     </row>
     <row r="33" spans="1:8" ht="12.3">
-      <c r="A33" s="93"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="10" t="s">
         <v>63</v>
       </c>
@@ -10892,10 +10892,10 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="85"/>
+      <c r="H33" s="91"/>
     </row>
     <row r="34" spans="1:8" ht="12.3">
-      <c r="A34" s="93"/>
+      <c r="A34" s="108"/>
       <c r="B34" s="10" t="s">
         <v>52</v>
       </c>
@@ -10906,10 +10906,10 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="85"/>
+      <c r="H34" s="91"/>
     </row>
     <row r="35" spans="1:8" ht="12.3">
-      <c r="A35" s="94"/>
+      <c r="A35" s="109"/>
       <c r="B35" s="10" t="s">
         <v>64</v>
       </c>
@@ -10920,10 +10920,10 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="86"/>
+      <c r="H35" s="92"/>
     </row>
     <row r="36" spans="1:8" ht="12.3">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="104" t="s">
         <v>648</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -10940,10 +10940,10 @@
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
-      <c r="H36" s="78"/>
+      <c r="H36" s="93"/>
     </row>
     <row r="37" spans="1:8" ht="12.3">
-      <c r="A37" s="96"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="10" t="s">
         <v>67</v>
       </c>
@@ -10958,10 +10958,10 @@
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
-      <c r="H37" s="85"/>
+      <c r="H37" s="91"/>
     </row>
     <row r="38" spans="1:8" ht="12.3">
-      <c r="A38" s="96"/>
+      <c r="A38" s="105"/>
       <c r="B38" s="18" t="s">
         <v>70</v>
       </c>
@@ -10976,10 +10976,10 @@
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
-      <c r="H38" s="85"/>
+      <c r="H38" s="91"/>
     </row>
     <row r="39" spans="1:8" ht="12.3">
-      <c r="A39" s="96"/>
+      <c r="A39" s="105"/>
       <c r="B39" s="10" t="s">
         <v>72</v>
       </c>
@@ -10990,10 +10990,10 @@
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="85"/>
+      <c r="H39" s="91"/>
     </row>
     <row r="40" spans="1:8" ht="12.3">
-      <c r="A40" s="96"/>
+      <c r="A40" s="105"/>
       <c r="B40" s="15" t="s">
         <v>73</v>
       </c>
@@ -11004,10 +11004,10 @@
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
-      <c r="H40" s="85"/>
+      <c r="H40" s="91"/>
     </row>
     <row r="41" spans="1:8" ht="12.3">
-      <c r="A41" s="96"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="15" t="s">
         <v>75</v>
       </c>
@@ -11018,10 +11018,10 @@
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="85"/>
+      <c r="H41" s="91"/>
     </row>
     <row r="42" spans="1:8" ht="12.3">
-      <c r="A42" s="97"/>
+      <c r="A42" s="106"/>
       <c r="B42" s="6" t="s">
         <v>76</v>
       </c>
@@ -11032,10 +11032,10 @@
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
-      <c r="H42" s="86"/>
+      <c r="H42" s="92"/>
     </row>
     <row r="43" spans="1:8" ht="12.3">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="107" t="s">
         <v>649</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -11056,10 +11056,10 @@
       <c r="G43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="81"/>
+      <c r="H43" s="90"/>
     </row>
     <row r="44" spans="1:8" ht="12.3">
-      <c r="A44" s="93"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="6" t="s">
         <v>81</v>
       </c>
@@ -11070,10 +11070,10 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="85"/>
+      <c r="H44" s="91"/>
     </row>
     <row r="45" spans="1:8" ht="12.3">
-      <c r="A45" s="93"/>
+      <c r="A45" s="108"/>
       <c r="B45" s="10" t="s">
         <v>82</v>
       </c>
@@ -11084,10 +11084,10 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="85"/>
+      <c r="H45" s="91"/>
     </row>
     <row r="46" spans="1:8" ht="12.3">
-      <c r="A46" s="93"/>
+      <c r="A46" s="108"/>
       <c r="B46" s="6" t="s">
         <v>83</v>
       </c>
@@ -11098,10 +11098,10 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="85"/>
+      <c r="H46" s="91"/>
     </row>
     <row r="47" spans="1:8" ht="12.3">
-      <c r="A47" s="93"/>
+      <c r="A47" s="108"/>
       <c r="B47" s="21" t="s">
         <v>84</v>
       </c>
@@ -11112,10 +11112,10 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="85"/>
+      <c r="H47" s="91"/>
     </row>
     <row r="48" spans="1:8" ht="12.3">
-      <c r="A48" s="93"/>
+      <c r="A48" s="108"/>
       <c r="B48" s="10" t="s">
         <v>63</v>
       </c>
@@ -11126,10 +11126,10 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="85"/>
+      <c r="H48" s="91"/>
     </row>
     <row r="49" spans="1:8" ht="12.3">
-      <c r="A49" s="93"/>
+      <c r="A49" s="108"/>
       <c r="B49" s="6" t="s">
         <v>85</v>
       </c>
@@ -11140,10 +11140,10 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="85"/>
+      <c r="H49" s="91"/>
     </row>
     <row r="50" spans="1:8" ht="12.3">
-      <c r="A50" s="94"/>
+      <c r="A50" s="109"/>
       <c r="B50" s="10" t="s">
         <v>86</v>
       </c>
@@ -11154,10 +11154,10 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="86"/>
+      <c r="H50" s="92"/>
     </row>
     <row r="51" spans="1:8" ht="12.3">
-      <c r="A51" s="95" t="s">
+      <c r="A51" s="104" t="s">
         <v>650</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -11178,10 +11178,10 @@
       <c r="G51" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="78"/>
+      <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:8" ht="12.3">
-      <c r="A52" s="96"/>
+      <c r="A52" s="105"/>
       <c r="B52" s="21" t="s">
         <v>59</v>
       </c>
@@ -11196,10 +11196,10 @@
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
-      <c r="H52" s="85"/>
+      <c r="H52" s="91"/>
     </row>
     <row r="53" spans="1:8" ht="12.3">
-      <c r="A53" s="96"/>
+      <c r="A53" s="105"/>
       <c r="B53" s="10" t="s">
         <v>92</v>
       </c>
@@ -11210,10 +11210,10 @@
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="85"/>
+      <c r="H53" s="91"/>
     </row>
     <row r="54" spans="1:8" ht="12.3">
-      <c r="A54" s="96"/>
+      <c r="A54" s="105"/>
       <c r="B54" s="22" t="s">
         <v>60</v>
       </c>
@@ -11224,10 +11224,10 @@
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
-      <c r="H54" s="85"/>
+      <c r="H54" s="91"/>
     </row>
     <row r="55" spans="1:8" ht="12.3">
-      <c r="A55" s="96"/>
+      <c r="A55" s="105"/>
       <c r="B55" s="21" t="s">
         <v>93</v>
       </c>
@@ -11238,10 +11238,10 @@
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
-      <c r="H55" s="85"/>
+      <c r="H55" s="91"/>
     </row>
     <row r="56" spans="1:8" ht="12.3">
-      <c r="A56" s="97"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="10" t="s">
         <v>94</v>
       </c>
@@ -11252,10 +11252,10 @@
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
-      <c r="H56" s="86"/>
+      <c r="H56" s="92"/>
     </row>
     <row r="57" spans="1:8" ht="12.3">
-      <c r="A57" s="92" t="s">
+      <c r="A57" s="107" t="s">
         <v>651</v>
       </c>
       <c r="B57" s="22" t="s">
@@ -11272,10 +11272,10 @@
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="81"/>
+      <c r="H57" s="90"/>
     </row>
     <row r="58" spans="1:8" ht="12.3">
-      <c r="A58" s="93"/>
+      <c r="A58" s="108"/>
       <c r="B58" s="10" t="s">
         <v>98</v>
       </c>
@@ -11290,10 +11290,10 @@
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="85"/>
+      <c r="H58" s="91"/>
     </row>
     <row r="59" spans="1:8" ht="12.3">
-      <c r="A59" s="93"/>
+      <c r="A59" s="108"/>
       <c r="B59" s="18" t="s">
         <v>101</v>
       </c>
@@ -11304,10 +11304,10 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="85"/>
+      <c r="H59" s="91"/>
     </row>
     <row r="60" spans="1:8" ht="12.3">
-      <c r="A60" s="93"/>
+      <c r="A60" s="108"/>
       <c r="B60" s="10" t="s">
         <v>102</v>
       </c>
@@ -11318,10 +11318,10 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="85"/>
+      <c r="H60" s="91"/>
     </row>
     <row r="61" spans="1:8" ht="12.3">
-      <c r="A61" s="93"/>
+      <c r="A61" s="108"/>
       <c r="B61" s="10" t="s">
         <v>103</v>
       </c>
@@ -11332,10 +11332,10 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="85"/>
+      <c r="H61" s="91"/>
     </row>
     <row r="62" spans="1:8" ht="12.3">
-      <c r="A62" s="93"/>
+      <c r="A62" s="108"/>
       <c r="B62" s="15" t="s">
         <v>104</v>
       </c>
@@ -11346,10 +11346,10 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="85"/>
+      <c r="H62" s="91"/>
     </row>
     <row r="63" spans="1:8" ht="12.3">
-      <c r="A63" s="93"/>
+      <c r="A63" s="108"/>
       <c r="B63" s="6" t="s">
         <v>105</v>
       </c>
@@ -11360,10 +11360,10 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="85"/>
+      <c r="H63" s="91"/>
     </row>
     <row r="64" spans="1:8" ht="12.3">
-      <c r="A64" s="94"/>
+      <c r="A64" s="109"/>
       <c r="B64" s="18" t="s">
         <v>106</v>
       </c>
@@ -11374,10 +11374,10 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="86"/>
+      <c r="H64" s="92"/>
     </row>
     <row r="65" spans="1:8" ht="12.3">
-      <c r="A65" s="95" t="s">
+      <c r="A65" s="104" t="s">
         <v>652</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -11394,10 +11394,10 @@
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
-      <c r="H65" s="78"/>
+      <c r="H65" s="93"/>
     </row>
     <row r="66" spans="1:8" ht="12.3">
-      <c r="A66" s="96"/>
+      <c r="A66" s="105"/>
       <c r="B66" s="21" t="s">
         <v>109</v>
       </c>
@@ -11408,10 +11408,10 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
-      <c r="H66" s="85"/>
+      <c r="H66" s="91"/>
     </row>
     <row r="67" spans="1:8" ht="12.3">
-      <c r="A67" s="96"/>
+      <c r="A67" s="105"/>
       <c r="B67" s="6" t="s">
         <v>111</v>
       </c>
@@ -11426,10 +11426,10 @@
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
-      <c r="H67" s="85"/>
+      <c r="H67" s="91"/>
     </row>
     <row r="68" spans="1:8" ht="12.3">
-      <c r="A68" s="96"/>
+      <c r="A68" s="105"/>
       <c r="B68" s="10" t="s">
         <v>113</v>
       </c>
@@ -11440,10 +11440,10 @@
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
-      <c r="H68" s="85"/>
+      <c r="H68" s="91"/>
     </row>
     <row r="69" spans="1:8" ht="12.3">
-      <c r="A69" s="96"/>
+      <c r="A69" s="105"/>
       <c r="B69" s="10" t="s">
         <v>114</v>
       </c>
@@ -11454,10 +11454,10 @@
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
-      <c r="H69" s="85"/>
+      <c r="H69" s="91"/>
     </row>
     <row r="70" spans="1:8" ht="12.3">
-      <c r="A70" s="96"/>
+      <c r="A70" s="105"/>
       <c r="B70" s="10" t="s">
         <v>115</v>
       </c>
@@ -11468,10 +11468,10 @@
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
-      <c r="H70" s="85"/>
+      <c r="H70" s="91"/>
     </row>
     <row r="71" spans="1:8" ht="12.3">
-      <c r="A71" s="96"/>
+      <c r="A71" s="105"/>
       <c r="B71" s="15" t="s">
         <v>116</v>
       </c>
@@ -11482,10 +11482,10 @@
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
-      <c r="H71" s="85"/>
+      <c r="H71" s="91"/>
     </row>
     <row r="72" spans="1:8" ht="12.3">
-      <c r="A72" s="97"/>
+      <c r="A72" s="106"/>
       <c r="B72" s="10" t="s">
         <v>37</v>
       </c>
@@ -11496,10 +11496,10 @@
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
-      <c r="H72" s="86"/>
+      <c r="H72" s="92"/>
     </row>
     <row r="73" spans="1:8" ht="12.3">
-      <c r="A73" s="92" t="s">
+      <c r="A73" s="107" t="s">
         <v>657</v>
       </c>
       <c r="B73" s="22" t="s">
@@ -11516,10 +11516,10 @@
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="81"/>
+      <c r="H73" s="90"/>
     </row>
     <row r="74" spans="1:8" ht="12.3">
-      <c r="A74" s="93"/>
+      <c r="A74" s="108"/>
       <c r="B74" s="18" t="s">
         <v>117</v>
       </c>
@@ -11534,10 +11534,10 @@
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="85"/>
+      <c r="H74" s="91"/>
     </row>
     <row r="75" spans="1:8" ht="12.3">
-      <c r="A75" s="93"/>
+      <c r="A75" s="108"/>
       <c r="B75" s="6" t="s">
         <v>119</v>
       </c>
@@ -11548,10 +11548,10 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="85"/>
+      <c r="H75" s="91"/>
     </row>
     <row r="76" spans="1:8" ht="12.3">
-      <c r="A76" s="93"/>
+      <c r="A76" s="108"/>
       <c r="B76" s="6" t="s">
         <v>111</v>
       </c>
@@ -11562,10 +11562,10 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="85"/>
+      <c r="H76" s="91"/>
     </row>
     <row r="77" spans="1:8" ht="12.3">
-      <c r="A77" s="93"/>
+      <c r="A77" s="108"/>
       <c r="B77" s="22" t="s">
         <v>120</v>
       </c>
@@ -11576,10 +11576,10 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="85"/>
+      <c r="H77" s="91"/>
     </row>
     <row r="78" spans="1:8" ht="12.3">
-      <c r="A78" s="93"/>
+      <c r="A78" s="108"/>
       <c r="B78" s="15" t="s">
         <v>121</v>
       </c>
@@ -11590,10 +11590,10 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="85"/>
+      <c r="H78" s="91"/>
     </row>
     <row r="79" spans="1:8" ht="12.3">
-      <c r="A79" s="93"/>
+      <c r="A79" s="108"/>
       <c r="B79" s="22" t="s">
         <v>122</v>
       </c>
@@ -11604,10 +11604,10 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="85"/>
+      <c r="H79" s="91"/>
     </row>
     <row r="80" spans="1:8" ht="12.3">
-      <c r="A80" s="94"/>
+      <c r="A80" s="109"/>
       <c r="B80" s="10" t="s">
         <v>64</v>
       </c>
@@ -11618,10 +11618,10 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="86"/>
+      <c r="H80" s="92"/>
     </row>
     <row r="81" spans="1:8" ht="15.6">
-      <c r="A81" s="98" t="s">
+      <c r="A81" s="110" t="s">
         <v>653</v>
       </c>
       <c r="B81" s="23" t="s">
@@ -11636,10 +11636,10 @@
       <c r="E81" s="26"/>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
-      <c r="H81" s="78"/>
+      <c r="H81" s="93"/>
     </row>
     <row r="82" spans="1:8" ht="15.6">
-      <c r="A82" s="99"/>
+      <c r="A82" s="111"/>
       <c r="B82" s="27" t="s">
         <v>126</v>
       </c>
@@ -11652,10 +11652,10 @@
       <c r="E82" s="19"/>
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
-      <c r="H82" s="85"/>
+      <c r="H82" s="91"/>
     </row>
     <row r="83" spans="1:8" ht="15.6">
-      <c r="A83" s="99"/>
+      <c r="A83" s="111"/>
       <c r="B83" s="27" t="s">
         <v>128</v>
       </c>
@@ -11668,10 +11668,10 @@
       <c r="E83" s="11"/>
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
-      <c r="H83" s="85"/>
+      <c r="H83" s="91"/>
     </row>
     <row r="84" spans="1:8" ht="15.6">
-      <c r="A84" s="99"/>
+      <c r="A84" s="111"/>
       <c r="B84" s="28" t="s">
         <v>130</v>
       </c>
@@ -11684,10 +11684,10 @@
       <c r="E84" s="19"/>
       <c r="F84" s="20"/>
       <c r="G84" s="20"/>
-      <c r="H84" s="85"/>
+      <c r="H84" s="91"/>
     </row>
     <row r="85" spans="1:8" ht="15.6">
-      <c r="A85" s="99"/>
+      <c r="A85" s="111"/>
       <c r="B85" s="27" t="s">
         <v>132</v>
       </c>
@@ -11698,10 +11698,10 @@
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
-      <c r="H85" s="85"/>
+      <c r="H85" s="91"/>
     </row>
     <row r="86" spans="1:8" ht="12.3">
-      <c r="A86" s="100"/>
+      <c r="A86" s="112"/>
       <c r="B86" s="10" t="s">
         <v>133</v>
       </c>
@@ -11712,10 +11712,10 @@
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
       <c r="G86" s="20"/>
-      <c r="H86" s="86"/>
+      <c r="H86" s="92"/>
     </row>
     <row r="87" spans="1:8" ht="12.3">
-      <c r="A87" s="92" t="s">
+      <c r="A87" s="107" t="s">
         <v>654</v>
       </c>
       <c r="B87" s="22" t="s">
@@ -11732,10 +11732,10 @@
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="81"/>
+      <c r="H87" s="90"/>
     </row>
     <row r="88" spans="1:8" ht="12.3">
-      <c r="A88" s="93"/>
+      <c r="A88" s="108"/>
       <c r="B88" s="15" t="s">
         <v>136</v>
       </c>
@@ -11746,10 +11746,10 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="85"/>
+      <c r="H88" s="91"/>
     </row>
     <row r="89" spans="1:8" ht="12.3">
-      <c r="A89" s="93"/>
+      <c r="A89" s="108"/>
       <c r="B89" s="22" t="s">
         <v>137</v>
       </c>
@@ -11760,10 +11760,10 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="85"/>
+      <c r="H89" s="91"/>
     </row>
     <row r="90" spans="1:8" ht="12.3">
-      <c r="A90" s="93"/>
+      <c r="A90" s="108"/>
       <c r="B90" s="18" t="s">
         <v>138</v>
       </c>
@@ -11774,10 +11774,10 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="85"/>
+      <c r="H90" s="91"/>
     </row>
     <row r="91" spans="1:8" ht="12.3">
-      <c r="A91" s="93"/>
+      <c r="A91" s="108"/>
       <c r="B91" s="18" t="s">
         <v>139</v>
       </c>
@@ -11788,10 +11788,10 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="85"/>
+      <c r="H91" s="91"/>
     </row>
     <row r="92" spans="1:8" ht="12.3">
-      <c r="A92" s="93"/>
+      <c r="A92" s="108"/>
       <c r="B92" s="15" t="s">
         <v>140</v>
       </c>
@@ -11802,10 +11802,10 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="85"/>
+      <c r="H92" s="91"/>
     </row>
     <row r="93" spans="1:8" ht="12.3">
-      <c r="A93" s="93"/>
+      <c r="A93" s="108"/>
       <c r="B93" s="6" t="s">
         <v>141</v>
       </c>
@@ -11816,10 +11816,10 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="85"/>
+      <c r="H93" s="91"/>
     </row>
     <row r="94" spans="1:8" ht="12.3">
-      <c r="A94" s="93"/>
+      <c r="A94" s="108"/>
       <c r="B94" s="15" t="s">
         <v>142</v>
       </c>
@@ -11830,10 +11830,10 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="85"/>
+      <c r="H94" s="91"/>
     </row>
     <row r="95" spans="1:8" ht="12.3">
-      <c r="A95" s="94"/>
+      <c r="A95" s="109"/>
       <c r="B95" s="18" t="s">
         <v>143</v>
       </c>
@@ -11844,15 +11844,18 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="86"/>
+      <c r="H95" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H57:H64"/>
-    <mergeCell ref="H65:H72"/>
-    <mergeCell ref="H73:H80"/>
-    <mergeCell ref="H81:H86"/>
-    <mergeCell ref="H87:H95"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="A65:A72"/>
     <mergeCell ref="H51:H56"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A2:A8"/>
@@ -11866,14 +11869,11 @@
     <mergeCell ref="H43:H50"/>
     <mergeCell ref="H2:H8"/>
     <mergeCell ref="H9:H13"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="H57:H64"/>
+    <mergeCell ref="H65:H72"/>
+    <mergeCell ref="H73:H80"/>
+    <mergeCell ref="H81:H86"/>
+    <mergeCell ref="H87:H95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11923,13 +11923,13 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12" ht="12.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="90" t="s">
         <v>643</v>
       </c>
       <c r="B2" s="8"/>
@@ -11942,16 +11942,16 @@
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="90" t="s">
         <v>661</v>
       </c>
-      <c r="I2" s="105"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="1:12" ht="12.3">
-      <c r="A3" s="82"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="8"/>
       <c r="C3" s="7"/>
       <c r="D3" s="10" t="s">
@@ -11962,14 +11962,14 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:12" ht="12.3">
-      <c r="A4" s="82"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="10" t="s">
         <v>267</v>
       </c>
@@ -11980,14 +11980,14 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
     </row>
     <row r="5" spans="1:12" ht="12.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="10" t="s">
         <v>268</v>
       </c>
@@ -11998,14 +11998,14 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
     </row>
     <row r="6" spans="1:12" ht="12.3">
-      <c r="A6" s="82"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="15" t="s">
         <v>269</v>
       </c>
@@ -12016,14 +12016,14 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
     </row>
     <row r="7" spans="1:12" ht="12.3">
-      <c r="A7" s="82"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="15" t="s">
         <v>271</v>
       </c>
@@ -12034,14 +12034,14 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
     </row>
     <row r="8" spans="1:12" ht="12.3">
-      <c r="A8" s="82"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="15" t="s">
         <v>272</v>
       </c>
@@ -12052,14 +12052,14 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
     </row>
     <row r="9" spans="1:12" ht="12.3">
-      <c r="A9" s="82"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="18" t="s">
         <v>274</v>
       </c>
@@ -12070,10 +12070,10 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="85"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:12" ht="12.3">
-      <c r="A10" s="82"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="22" t="s">
         <v>276</v>
       </c>
@@ -12084,10 +12084,10 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="85"/>
+      <c r="H10" s="91"/>
     </row>
     <row r="11" spans="1:12" ht="12.3">
-      <c r="A11" s="83"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="22" t="s">
         <v>278</v>
       </c>
@@ -12098,10 +12098,10 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="86"/>
+      <c r="H11" s="92"/>
     </row>
     <row r="12" spans="1:12" ht="12.3">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="90" t="s">
         <v>644</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -12114,10 +12114,10 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="81"/>
+      <c r="H12" s="90"/>
     </row>
     <row r="13" spans="1:12" ht="12.3">
-      <c r="A13" s="82"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="6" t="s">
         <v>281</v>
       </c>
@@ -12128,10 +12128,10 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="85"/>
+      <c r="H13" s="91"/>
     </row>
     <row r="14" spans="1:12" ht="12.3">
-      <c r="A14" s="82"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="18" t="s">
         <v>282</v>
       </c>
@@ -12142,10 +12142,10 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="85"/>
+      <c r="H14" s="91"/>
     </row>
     <row r="15" spans="1:12" ht="12.3">
-      <c r="A15" s="82"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="10" t="s">
         <v>283</v>
       </c>
@@ -12156,10 +12156,10 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="85"/>
+      <c r="H15" s="91"/>
     </row>
     <row r="16" spans="1:12" ht="12.3">
-      <c r="A16" s="82"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="10" t="s">
@@ -12170,10 +12170,10 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="85"/>
+      <c r="H16" s="91"/>
     </row>
     <row r="17" spans="1:8" ht="12.3">
-      <c r="A17" s="82"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="18" t="s">
         <v>285</v>
       </c>
@@ -12184,10 +12184,10 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="85"/>
+      <c r="H17" s="91"/>
     </row>
     <row r="18" spans="1:8" ht="12.3">
-      <c r="A18" s="82"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="10" t="s">
         <v>286</v>
       </c>
@@ -12198,10 +12198,10 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="85"/>
+      <c r="H18" s="91"/>
     </row>
     <row r="19" spans="1:8" ht="12.3">
-      <c r="A19" s="82"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="10" t="s">
         <v>287</v>
       </c>
@@ -12212,10 +12212,10 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="85"/>
+      <c r="H19" s="91"/>
     </row>
     <row r="20" spans="1:8" ht="12.3">
-      <c r="A20" s="82"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="21" t="s">
         <v>288</v>
       </c>
@@ -12226,10 +12226,10 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="85"/>
+      <c r="H20" s="91"/>
     </row>
     <row r="21" spans="1:8" ht="12.3">
-      <c r="A21" s="83"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="10" t="s">
         <v>289</v>
       </c>
@@ -12240,10 +12240,10 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="86"/>
+      <c r="H21" s="92"/>
     </row>
     <row r="22" spans="1:8" ht="12.3">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="90" t="s">
         <v>645</v>
       </c>
       <c r="B22" s="7"/>
@@ -12256,10 +12256,10 @@
       <c r="G22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="81"/>
+      <c r="H22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="12.3">
-      <c r="A23" s="82"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="10" t="s">
         <v>291</v>
       </c>
@@ -12270,10 +12270,10 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="85"/>
+      <c r="H23" s="91"/>
     </row>
     <row r="24" spans="1:8" ht="12.3">
-      <c r="A24" s="82"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="10" t="s">
@@ -12284,10 +12284,10 @@
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="85"/>
+      <c r="H24" s="91"/>
     </row>
     <row r="25" spans="1:8" ht="12.3">
-      <c r="A25" s="82"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="15" t="s">
         <v>293</v>
       </c>
@@ -12298,10 +12298,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="85"/>
+      <c r="H25" s="91"/>
     </row>
     <row r="26" spans="1:8" ht="12.3">
-      <c r="A26" s="82"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="15" t="s">
         <v>295</v>
       </c>
@@ -12312,10 +12312,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="85"/>
+      <c r="H26" s="91"/>
     </row>
     <row r="27" spans="1:8" ht="12.3">
-      <c r="A27" s="82"/>
+      <c r="A27" s="94"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="22" t="s">
@@ -12326,10 +12326,10 @@
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="85"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="12.3">
-      <c r="A28" s="82"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="6" t="s">
         <v>298</v>
       </c>
@@ -12340,10 +12340,10 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="85"/>
+      <c r="H28" s="91"/>
     </row>
     <row r="29" spans="1:8" ht="12.3">
-      <c r="A29" s="82"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="10" t="s">
         <v>299</v>
       </c>
@@ -12354,10 +12354,10 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="85"/>
+      <c r="H29" s="91"/>
     </row>
     <row r="30" spans="1:8" ht="12.3">
-      <c r="A30" s="82"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="15" t="s">
         <v>300</v>
       </c>
@@ -12368,10 +12368,10 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="85"/>
+      <c r="H30" s="91"/>
     </row>
     <row r="31" spans="1:8" ht="12.3">
-      <c r="A31" s="83"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="10" t="s">
         <v>301</v>
       </c>
@@ -12382,10 +12382,10 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="86"/>
+      <c r="H31" s="92"/>
     </row>
     <row r="32" spans="1:8" ht="12.3">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="90" t="s">
         <v>646</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -12398,10 +12398,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="81"/>
+      <c r="H32" s="90"/>
     </row>
     <row r="33" spans="1:8" ht="12.3">
-      <c r="A33" s="82"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="6" t="s">
@@ -12412,10 +12412,10 @@
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="85"/>
+      <c r="H33" s="91"/>
     </row>
     <row r="34" spans="1:8" ht="12.3">
-      <c r="A34" s="82"/>
+      <c r="A34" s="94"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="18" t="s">
@@ -12426,10 +12426,10 @@
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="85"/>
+      <c r="H34" s="91"/>
     </row>
     <row r="35" spans="1:8" ht="12.3">
-      <c r="A35" s="82"/>
+      <c r="A35" s="94"/>
       <c r="B35" s="18" t="s">
         <v>306</v>
       </c>
@@ -12440,10 +12440,10 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="85"/>
+      <c r="H35" s="91"/>
     </row>
     <row r="36" spans="1:8" ht="12.3">
-      <c r="A36" s="82"/>
+      <c r="A36" s="94"/>
       <c r="B36" s="18" t="s">
         <v>308</v>
       </c>
@@ -12454,10 +12454,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="85"/>
+      <c r="H36" s="91"/>
     </row>
     <row r="37" spans="1:8" ht="12.3">
-      <c r="A37" s="82"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="18" t="s">
@@ -12468,10 +12468,10 @@
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="85"/>
+      <c r="H37" s="91"/>
     </row>
     <row r="38" spans="1:8" ht="12.3">
-      <c r="A38" s="82"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="18" t="s">
         <v>311</v>
       </c>
@@ -12482,10 +12482,10 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="85"/>
+      <c r="H38" s="91"/>
     </row>
     <row r="39" spans="1:8" ht="12.3">
-      <c r="A39" s="82"/>
+      <c r="A39" s="94"/>
       <c r="B39" s="22" t="s">
         <v>313</v>
       </c>
@@ -12496,10 +12496,10 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="85"/>
+      <c r="H39" s="91"/>
     </row>
     <row r="40" spans="1:8" ht="12.3">
-      <c r="A40" s="82"/>
+      <c r="A40" s="94"/>
       <c r="B40" s="37" t="s">
         <v>314</v>
       </c>
@@ -12510,10 +12510,10 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="85"/>
+      <c r="H40" s="91"/>
     </row>
     <row r="41" spans="1:8" ht="12.3">
-      <c r="A41" s="83"/>
+      <c r="A41" s="95"/>
       <c r="B41" s="22" t="s">
         <v>315</v>
       </c>
@@ -12524,10 +12524,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="86"/>
+      <c r="H41" s="92"/>
     </row>
     <row r="42" spans="1:8" ht="12.3">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="90" t="s">
         <v>647</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -12540,10 +12540,10 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="81"/>
+      <c r="H42" s="90"/>
     </row>
     <row r="43" spans="1:8" ht="12.3">
-      <c r="A43" s="82"/>
+      <c r="A43" s="94"/>
       <c r="B43" s="6" t="s">
         <v>318</v>
       </c>
@@ -12554,10 +12554,10 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="85"/>
+      <c r="H43" s="91"/>
     </row>
     <row r="44" spans="1:8" ht="12.3">
-      <c r="A44" s="82"/>
+      <c r="A44" s="94"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -12568,10 +12568,10 @@
       <c r="G44" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H44" s="85"/>
+      <c r="H44" s="91"/>
     </row>
     <row r="45" spans="1:8" ht="12.3">
-      <c r="A45" s="82"/>
+      <c r="A45" s="94"/>
       <c r="B45" s="10" t="s">
         <v>322</v>
       </c>
@@ -12582,10 +12582,10 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="85"/>
+      <c r="H45" s="91"/>
     </row>
     <row r="46" spans="1:8" ht="12.3">
-      <c r="A46" s="82"/>
+      <c r="A46" s="94"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="15" t="s">
@@ -12596,10 +12596,10 @@
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="85"/>
+      <c r="H46" s="91"/>
     </row>
     <row r="47" spans="1:8" ht="12.3">
-      <c r="A47" s="82"/>
+      <c r="A47" s="94"/>
       <c r="B47" s="15" t="s">
         <v>324</v>
       </c>
@@ -12610,10 +12610,10 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="85"/>
+      <c r="H47" s="91"/>
     </row>
     <row r="48" spans="1:8" ht="12.3">
-      <c r="A48" s="82"/>
+      <c r="A48" s="94"/>
       <c r="B48" s="21" t="s">
         <v>325</v>
       </c>
@@ -12624,10 +12624,10 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="85"/>
+      <c r="H48" s="91"/>
     </row>
     <row r="49" spans="1:8" ht="12.3">
-      <c r="A49" s="82"/>
+      <c r="A49" s="94"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="21" t="s">
@@ -12638,10 +12638,10 @@
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="85"/>
+      <c r="H49" s="91"/>
     </row>
     <row r="50" spans="1:8" ht="12.3">
-      <c r="A50" s="82"/>
+      <c r="A50" s="94"/>
       <c r="B50" s="22" t="s">
         <v>327</v>
       </c>
@@ -12652,10 +12652,10 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="85"/>
+      <c r="H50" s="91"/>
     </row>
     <row r="51" spans="1:8" ht="12.3">
-      <c r="A51" s="83"/>
+      <c r="A51" s="95"/>
       <c r="B51" s="22" t="s">
         <v>329</v>
       </c>
@@ -12666,10 +12666,10 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="86"/>
+      <c r="H51" s="92"/>
     </row>
     <row r="52" spans="1:8" ht="12.3">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="90" t="s">
         <v>648</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -12682,10 +12682,10 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="81"/>
+      <c r="H52" s="90"/>
     </row>
     <row r="53" spans="1:8" ht="12.3">
-      <c r="A53" s="82"/>
+      <c r="A53" s="94"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -12696,10 +12696,10 @@
       <c r="G53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="85"/>
+      <c r="H53" s="91"/>
     </row>
     <row r="54" spans="1:8" ht="12.3">
-      <c r="A54" s="82"/>
+      <c r="A54" s="94"/>
       <c r="B54" s="10" t="s">
         <v>333</v>
       </c>
@@ -12710,10 +12710,10 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="85"/>
+      <c r="H54" s="91"/>
     </row>
     <row r="55" spans="1:8" ht="12.3">
-      <c r="A55" s="82"/>
+      <c r="A55" s="94"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="10" t="s">
@@ -12724,10 +12724,10 @@
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="85"/>
+      <c r="H55" s="91"/>
     </row>
     <row r="56" spans="1:8" ht="12.3">
-      <c r="A56" s="82"/>
+      <c r="A56" s="94"/>
       <c r="B56" s="10" t="s">
         <v>335</v>
       </c>
@@ -12738,10 +12738,10 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="85"/>
+      <c r="H56" s="91"/>
     </row>
     <row r="57" spans="1:8" ht="12.3">
-      <c r="A57" s="82"/>
+      <c r="A57" s="94"/>
       <c r="B57" s="10" t="s">
         <v>336</v>
       </c>
@@ -12752,10 +12752,10 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="85"/>
+      <c r="H57" s="91"/>
     </row>
     <row r="58" spans="1:8" ht="12.3">
-      <c r="A58" s="82"/>
+      <c r="A58" s="94"/>
       <c r="B58" s="10" t="s">
         <v>337</v>
       </c>
@@ -12766,10 +12766,10 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="85"/>
+      <c r="H58" s="91"/>
     </row>
     <row r="59" spans="1:8" ht="12.3">
-      <c r="A59" s="82"/>
+      <c r="A59" s="94"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="10" t="s">
@@ -12780,10 +12780,10 @@
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="85"/>
+      <c r="H59" s="91"/>
     </row>
     <row r="60" spans="1:8" ht="12.3">
-      <c r="A60" s="82"/>
+      <c r="A60" s="94"/>
       <c r="B60" s="10" t="s">
         <v>339</v>
       </c>
@@ -12794,10 +12794,10 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="85"/>
+      <c r="H60" s="91"/>
     </row>
     <row r="61" spans="1:8" ht="12.3">
-      <c r="A61" s="83"/>
+      <c r="A61" s="95"/>
       <c r="B61" s="10" t="s">
         <v>340</v>
       </c>
@@ -12808,10 +12808,10 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="86"/>
+      <c r="H61" s="92"/>
     </row>
     <row r="62" spans="1:8" ht="12.3">
-      <c r="A62" s="81" t="s">
+      <c r="A62" s="90" t="s">
         <v>649</v>
       </c>
       <c r="B62" s="7"/>
@@ -12824,10 +12824,10 @@
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="81"/>
+      <c r="H62" s="90"/>
     </row>
     <row r="63" spans="1:8" ht="12.3">
-      <c r="A63" s="82"/>
+      <c r="A63" s="94"/>
       <c r="B63" s="6" t="s">
         <v>342</v>
       </c>
@@ -12838,10 +12838,10 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="85"/>
+      <c r="H63" s="91"/>
     </row>
     <row r="64" spans="1:8" ht="12.3">
-      <c r="A64" s="82"/>
+      <c r="A64" s="94"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="10" t="s">
@@ -12852,10 +12852,10 @@
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="85"/>
+      <c r="H64" s="91"/>
     </row>
     <row r="65" spans="1:8" ht="12.3">
-      <c r="A65" s="82"/>
+      <c r="A65" s="94"/>
       <c r="B65" s="10" t="s">
         <v>344</v>
       </c>
@@ -12866,10 +12866,10 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="85"/>
+      <c r="H65" s="91"/>
     </row>
     <row r="66" spans="1:8" ht="12.3">
-      <c r="A66" s="82"/>
+      <c r="A66" s="94"/>
       <c r="B66" s="15" t="s">
         <v>345</v>
       </c>
@@ -12880,10 +12880,10 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="85"/>
+      <c r="H66" s="91"/>
     </row>
     <row r="67" spans="1:8" ht="12.3">
-      <c r="A67" s="82"/>
+      <c r="A67" s="94"/>
       <c r="B67" s="21" t="s">
         <v>346</v>
       </c>
@@ -12894,10 +12894,10 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="85"/>
+      <c r="H67" s="91"/>
     </row>
     <row r="68" spans="1:8" ht="12.3">
-      <c r="A68" s="82"/>
+      <c r="A68" s="94"/>
       <c r="B68" s="21" t="s">
         <v>347</v>
       </c>
@@ -12908,10 +12908,10 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="85"/>
+      <c r="H68" s="91"/>
     </row>
     <row r="69" spans="1:8" ht="12.3">
-      <c r="A69" s="82"/>
+      <c r="A69" s="94"/>
       <c r="B69" s="18" t="s">
         <v>348</v>
       </c>
@@ -12922,10 +12922,10 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="85"/>
+      <c r="H69" s="91"/>
     </row>
     <row r="70" spans="1:8" ht="12.3">
-      <c r="A70" s="82"/>
+      <c r="A70" s="94"/>
       <c r="B70" s="18" t="s">
         <v>349</v>
       </c>
@@ -12936,10 +12936,10 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="85"/>
+      <c r="H70" s="91"/>
     </row>
     <row r="71" spans="1:8" ht="12.3">
-      <c r="A71" s="83"/>
+      <c r="A71" s="95"/>
       <c r="B71" s="22" t="s">
         <v>350</v>
       </c>
@@ -12950,10 +12950,10 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="86"/>
+      <c r="H71" s="92"/>
     </row>
     <row r="72" spans="1:8" ht="12.3">
-      <c r="A72" s="81" t="s">
+      <c r="A72" s="90" t="s">
         <v>650</v>
       </c>
       <c r="B72" s="8"/>
@@ -12966,10 +12966,10 @@
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="81"/>
+      <c r="H72" s="90"/>
     </row>
     <row r="73" spans="1:8" ht="12.3">
-      <c r="A73" s="82"/>
+      <c r="A73" s="94"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="6" t="s">
@@ -12980,10 +12980,10 @@
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="85"/>
+      <c r="H73" s="91"/>
     </row>
     <row r="74" spans="1:8" ht="12.3">
-      <c r="A74" s="82"/>
+      <c r="A74" s="94"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="18" t="s">
@@ -12994,10 +12994,10 @@
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="85"/>
+      <c r="H74" s="91"/>
     </row>
     <row r="75" spans="1:8" ht="12.3">
-      <c r="A75" s="82"/>
+      <c r="A75" s="94"/>
       <c r="B75" s="10" t="s">
         <v>354</v>
       </c>
@@ -13008,10 +13008,10 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="85"/>
+      <c r="H75" s="91"/>
     </row>
     <row r="76" spans="1:8" ht="12.3">
-      <c r="A76" s="82"/>
+      <c r="A76" s="94"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="15" t="s">
@@ -13022,10 +13022,10 @@
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="85"/>
+      <c r="H76" s="91"/>
     </row>
     <row r="77" spans="1:8" ht="12.3">
-      <c r="A77" s="82"/>
+      <c r="A77" s="94"/>
       <c r="B77" s="18" t="s">
         <v>356</v>
       </c>
@@ -13036,10 +13036,10 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="85"/>
+      <c r="H77" s="91"/>
     </row>
     <row r="78" spans="1:8" ht="12.3">
-      <c r="A78" s="82"/>
+      <c r="A78" s="94"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="10" t="s">
@@ -13050,10 +13050,10 @@
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="85"/>
+      <c r="H78" s="91"/>
     </row>
     <row r="79" spans="1:8" ht="12.3">
-      <c r="A79" s="82"/>
+      <c r="A79" s="94"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="10" t="s">
@@ -13064,10 +13064,10 @@
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="85"/>
+      <c r="H79" s="91"/>
     </row>
     <row r="80" spans="1:8" ht="12.3">
-      <c r="A80" s="82"/>
+      <c r="A80" s="94"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="18" t="s">
@@ -13078,10 +13078,10 @@
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="85"/>
+      <c r="H80" s="91"/>
     </row>
     <row r="81" spans="1:8" ht="12.3">
-      <c r="A81" s="83"/>
+      <c r="A81" s="95"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="10" t="s">
@@ -13092,10 +13092,10 @@
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="86"/>
+      <c r="H81" s="92"/>
     </row>
     <row r="82" spans="1:8" ht="12.3">
-      <c r="A82" s="81" t="s">
+      <c r="A82" s="90" t="s">
         <v>651</v>
       </c>
       <c r="B82" s="8"/>
@@ -13108,10 +13108,10 @@
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="81"/>
+      <c r="H82" s="90"/>
     </row>
     <row r="83" spans="1:8" ht="12.3">
-      <c r="A83" s="82"/>
+      <c r="A83" s="94"/>
       <c r="B83" s="10" t="s">
         <v>362</v>
       </c>
@@ -13122,10 +13122,10 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="85"/>
+      <c r="H83" s="91"/>
     </row>
     <row r="84" spans="1:8" ht="12.3">
-      <c r="A84" s="82"/>
+      <c r="A84" s="94"/>
       <c r="B84" s="15" t="s">
         <v>363</v>
       </c>
@@ -13136,10 +13136,10 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="85"/>
+      <c r="H84" s="91"/>
     </row>
     <row r="85" spans="1:8" ht="12.3">
-      <c r="A85" s="82"/>
+      <c r="A85" s="94"/>
       <c r="B85" s="10" t="s">
         <v>364</v>
       </c>
@@ -13150,10 +13150,10 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="85"/>
+      <c r="H85" s="91"/>
     </row>
     <row r="86" spans="1:8" ht="12.3">
-      <c r="A86" s="82"/>
+      <c r="A86" s="94"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="21" t="s">
@@ -13164,10 +13164,10 @@
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="85"/>
+      <c r="H86" s="91"/>
     </row>
     <row r="87" spans="1:8" ht="12.3">
-      <c r="A87" s="82"/>
+      <c r="A87" s="94"/>
       <c r="B87" s="15" t="s">
         <v>366</v>
       </c>
@@ -13178,10 +13178,10 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="85"/>
+      <c r="H87" s="91"/>
     </row>
     <row r="88" spans="1:8" ht="12.3">
-      <c r="A88" s="82"/>
+      <c r="A88" s="94"/>
       <c r="B88" s="15" t="s">
         <v>367</v>
       </c>
@@ -13192,10 +13192,10 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="85"/>
+      <c r="H88" s="91"/>
     </row>
     <row r="89" spans="1:8" ht="12.3">
-      <c r="A89" s="82"/>
+      <c r="A89" s="94"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="10" t="s">
@@ -13206,10 +13206,10 @@
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="85"/>
+      <c r="H89" s="91"/>
     </row>
     <row r="90" spans="1:8" ht="12.3">
-      <c r="A90" s="82"/>
+      <c r="A90" s="94"/>
       <c r="B90" s="18" t="s">
         <v>369</v>
       </c>
@@ -13220,10 +13220,10 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="85"/>
+      <c r="H90" s="91"/>
     </row>
     <row r="91" spans="1:8" ht="12.3">
-      <c r="A91" s="83"/>
+      <c r="A91" s="95"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="15" t="s">
@@ -13234,10 +13234,10 @@
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="86"/>
+      <c r="H91" s="92"/>
     </row>
     <row r="92" spans="1:8" ht="12.3">
-      <c r="A92" s="81" t="s">
+      <c r="A92" s="90" t="s">
         <v>652</v>
       </c>
       <c r="B92" s="15" t="s">
@@ -13250,10 +13250,10 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="81"/>
+      <c r="H92" s="90"/>
     </row>
     <row r="93" spans="1:8" ht="12.3">
-      <c r="A93" s="82"/>
+      <c r="A93" s="94"/>
       <c r="B93" s="15" t="s">
         <v>372</v>
       </c>
@@ -13264,10 +13264,10 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="85"/>
+      <c r="H93" s="91"/>
     </row>
     <row r="94" spans="1:8" ht="12.3">
-      <c r="A94" s="82"/>
+      <c r="A94" s="94"/>
       <c r="B94" s="38" t="s">
         <v>373</v>
       </c>
@@ -13278,10 +13278,10 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="85"/>
+      <c r="H94" s="91"/>
     </row>
     <row r="95" spans="1:8" ht="12.3">
-      <c r="A95" s="82"/>
+      <c r="A95" s="94"/>
       <c r="B95" s="15" t="s">
         <v>374</v>
       </c>
@@ -13292,10 +13292,10 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="85"/>
+      <c r="H95" s="91"/>
     </row>
     <row r="96" spans="1:8" ht="12.3">
-      <c r="A96" s="82"/>
+      <c r="A96" s="94"/>
       <c r="B96" s="15" t="s">
         <v>375</v>
       </c>
@@ -13306,10 +13306,10 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="85"/>
+      <c r="H96" s="91"/>
     </row>
     <row r="97" spans="1:8" ht="12.3">
-      <c r="A97" s="82"/>
+      <c r="A97" s="94"/>
       <c r="B97" s="15" t="s">
         <v>376</v>
       </c>
@@ -13320,10 +13320,10 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
-      <c r="H97" s="85"/>
+      <c r="H97" s="91"/>
     </row>
     <row r="98" spans="1:8" ht="12.3">
-      <c r="A98" s="82"/>
+      <c r="A98" s="94"/>
       <c r="B98" s="15" t="s">
         <v>377</v>
       </c>
@@ -13334,10 +13334,10 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
-      <c r="H98" s="85"/>
+      <c r="H98" s="91"/>
     </row>
     <row r="99" spans="1:8" ht="12.3">
-      <c r="A99" s="82"/>
+      <c r="A99" s="94"/>
       <c r="B99" s="15" t="s">
         <v>378</v>
       </c>
@@ -13348,10 +13348,10 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
-      <c r="H99" s="85"/>
+      <c r="H99" s="91"/>
     </row>
     <row r="100" spans="1:8" ht="12.3">
-      <c r="A100" s="82"/>
+      <c r="A100" s="94"/>
       <c r="B100" s="15" t="s">
         <v>380</v>
       </c>
@@ -13362,10 +13362,10 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
-      <c r="H100" s="85"/>
+      <c r="H100" s="91"/>
     </row>
     <row r="101" spans="1:8" ht="12.3">
-      <c r="A101" s="83"/>
+      <c r="A101" s="95"/>
       <c r="B101" s="15" t="s">
         <v>381</v>
       </c>
@@ -13376,10 +13376,10 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="86"/>
+      <c r="H101" s="92"/>
     </row>
     <row r="102" spans="1:8" ht="12.3">
-      <c r="A102" s="81" t="s">
+      <c r="A102" s="90" t="s">
         <v>657</v>
       </c>
       <c r="B102" s="22" t="s">
@@ -13392,10 +13392,10 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="81"/>
+      <c r="H102" s="90"/>
     </row>
     <row r="103" spans="1:8" ht="12.3">
-      <c r="A103" s="82"/>
+      <c r="A103" s="94"/>
       <c r="B103" s="22" t="s">
         <v>383</v>
       </c>
@@ -13406,10 +13406,10 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="85"/>
+      <c r="H103" s="91"/>
     </row>
     <row r="104" spans="1:8" ht="12.3">
-      <c r="A104" s="82"/>
+      <c r="A104" s="94"/>
       <c r="B104" s="22" t="s">
         <v>384</v>
       </c>
@@ -13420,10 +13420,10 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="85"/>
+      <c r="H104" s="91"/>
     </row>
     <row r="105" spans="1:8" ht="12.3">
-      <c r="A105" s="82"/>
+      <c r="A105" s="94"/>
       <c r="B105" s="22" t="s">
         <v>385</v>
       </c>
@@ -13434,10 +13434,10 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
-      <c r="H105" s="85"/>
+      <c r="H105" s="91"/>
     </row>
     <row r="106" spans="1:8" ht="12.3">
-      <c r="A106" s="82"/>
+      <c r="A106" s="94"/>
       <c r="B106" s="22" t="s">
         <v>386</v>
       </c>
@@ -13448,10 +13448,10 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
-      <c r="H106" s="85"/>
+      <c r="H106" s="91"/>
     </row>
     <row r="107" spans="1:8" ht="12.3">
-      <c r="A107" s="82"/>
+      <c r="A107" s="94"/>
       <c r="B107" s="22" t="s">
         <v>388</v>
       </c>
@@ -13462,10 +13462,10 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="85"/>
+      <c r="H107" s="91"/>
     </row>
     <row r="108" spans="1:8" ht="12.3">
-      <c r="A108" s="82"/>
+      <c r="A108" s="94"/>
       <c r="B108" s="22" t="s">
         <v>389</v>
       </c>
@@ -13476,10 +13476,10 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
-      <c r="H108" s="85"/>
+      <c r="H108" s="91"/>
     </row>
     <row r="109" spans="1:8" ht="12.3">
-      <c r="A109" s="82"/>
+      <c r="A109" s="94"/>
       <c r="B109" s="22" t="s">
         <v>390</v>
       </c>
@@ -13490,10 +13490,10 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
-      <c r="H109" s="85"/>
+      <c r="H109" s="91"/>
     </row>
     <row r="110" spans="1:8" ht="12.3">
-      <c r="A110" s="82"/>
+      <c r="A110" s="94"/>
       <c r="B110" s="18" t="s">
         <v>391</v>
       </c>
@@ -13504,10 +13504,10 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
-      <c r="H110" s="85"/>
+      <c r="H110" s="91"/>
     </row>
     <row r="111" spans="1:8" ht="12.3">
-      <c r="A111" s="83"/>
+      <c r="A111" s="95"/>
       <c r="B111" s="18" t="s">
         <v>392</v>
       </c>
@@ -13518,10 +13518,10 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
-      <c r="H111" s="86"/>
+      <c r="H111" s="92"/>
     </row>
     <row r="112" spans="1:8" ht="12.3">
-      <c r="A112" s="81" t="s">
+      <c r="A112" s="90" t="s">
         <v>653</v>
       </c>
       <c r="B112" s="6" t="s">
@@ -13534,10 +13534,10 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
-      <c r="H112" s="81"/>
+      <c r="H112" s="90"/>
     </row>
     <row r="113" spans="1:8" ht="12.3">
-      <c r="A113" s="82"/>
+      <c r="A113" s="94"/>
       <c r="B113" s="6" t="s">
         <v>394</v>
       </c>
@@ -13548,10 +13548,10 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
-      <c r="H113" s="85"/>
+      <c r="H113" s="91"/>
     </row>
     <row r="114" spans="1:8" ht="12.3">
-      <c r="A114" s="82"/>
+      <c r="A114" s="94"/>
       <c r="B114" s="10" t="s">
         <v>395</v>
       </c>
@@ -13562,10 +13562,10 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
-      <c r="H114" s="85"/>
+      <c r="H114" s="91"/>
     </row>
     <row r="115" spans="1:8" ht="12.3">
-      <c r="A115" s="82"/>
+      <c r="A115" s="94"/>
       <c r="B115" s="6" t="s">
         <v>396</v>
       </c>
@@ -13576,10 +13576,10 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
-      <c r="H115" s="85"/>
+      <c r="H115" s="91"/>
     </row>
     <row r="116" spans="1:8" ht="12.3">
-      <c r="A116" s="82"/>
+      <c r="A116" s="94"/>
       <c r="B116" s="6" t="s">
         <v>397</v>
       </c>
@@ -13590,10 +13590,10 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
-      <c r="H116" s="85"/>
+      <c r="H116" s="91"/>
     </row>
     <row r="117" spans="1:8" ht="12.3">
-      <c r="A117" s="82"/>
+      <c r="A117" s="94"/>
       <c r="B117" s="6" t="s">
         <v>398</v>
       </c>
@@ -13604,10 +13604,10 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="85"/>
+      <c r="H117" s="91"/>
     </row>
     <row r="118" spans="1:8" ht="12.3">
-      <c r="A118" s="82"/>
+      <c r="A118" s="94"/>
       <c r="B118" s="6" t="s">
         <v>399</v>
       </c>
@@ -13618,10 +13618,10 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
-      <c r="H118" s="85"/>
+      <c r="H118" s="91"/>
     </row>
     <row r="119" spans="1:8" ht="12.3">
-      <c r="A119" s="82"/>
+      <c r="A119" s="94"/>
       <c r="B119" s="6" t="s">
         <v>400</v>
       </c>
@@ -13632,10 +13632,10 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
-      <c r="H119" s="85"/>
+      <c r="H119" s="91"/>
     </row>
     <row r="120" spans="1:8" ht="12.3">
-      <c r="A120" s="82"/>
+      <c r="A120" s="94"/>
       <c r="B120" s="6" t="s">
         <v>401</v>
       </c>
@@ -13646,10 +13646,10 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
-      <c r="H120" s="85"/>
+      <c r="H120" s="91"/>
     </row>
     <row r="121" spans="1:8" ht="12.3">
-      <c r="A121" s="83"/>
+      <c r="A121" s="95"/>
       <c r="B121" s="6" t="s">
         <v>402</v>
       </c>
@@ -13660,10 +13660,10 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
-      <c r="H121" s="86"/>
+      <c r="H121" s="92"/>
     </row>
     <row r="122" spans="1:8" ht="12.3">
-      <c r="A122" s="81" t="s">
+      <c r="A122" s="90" t="s">
         <v>654</v>
       </c>
       <c r="B122" s="6" t="s">
@@ -13676,10 +13676,10 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
-      <c r="H122" s="81"/>
+      <c r="H122" s="90"/>
     </row>
     <row r="123" spans="1:8" ht="12.3">
-      <c r="A123" s="82"/>
+      <c r="A123" s="94"/>
       <c r="B123" s="6" t="s">
         <v>404</v>
       </c>
@@ -13690,10 +13690,10 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
-      <c r="H123" s="85"/>
+      <c r="H123" s="91"/>
     </row>
     <row r="124" spans="1:8" ht="12.3">
-      <c r="A124" s="82"/>
+      <c r="A124" s="94"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="10" t="s">
@@ -13704,10 +13704,10 @@
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
-      <c r="H124" s="85"/>
+      <c r="H124" s="91"/>
     </row>
     <row r="125" spans="1:8" ht="12.3">
-      <c r="A125" s="82"/>
+      <c r="A125" s="94"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="15" t="s">
@@ -13718,10 +13718,10 @@
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
-      <c r="H125" s="85"/>
+      <c r="H125" s="91"/>
     </row>
     <row r="126" spans="1:8" ht="12.3">
-      <c r="A126" s="82"/>
+      <c r="A126" s="94"/>
       <c r="B126" s="15" t="s">
         <v>407</v>
       </c>
@@ -13732,10 +13732,10 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
-      <c r="H126" s="85"/>
+      <c r="H126" s="91"/>
     </row>
     <row r="127" spans="1:8" ht="12.3">
-      <c r="A127" s="82"/>
+      <c r="A127" s="94"/>
       <c r="B127" s="21" t="s">
         <v>347</v>
       </c>
@@ -13746,10 +13746,10 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
-      <c r="H127" s="85"/>
+      <c r="H127" s="91"/>
     </row>
     <row r="128" spans="1:8" ht="12.3">
-      <c r="A128" s="82"/>
+      <c r="A128" s="94"/>
       <c r="B128" s="18" t="s">
         <v>408</v>
       </c>
@@ -13760,10 +13760,10 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
-      <c r="H128" s="85"/>
+      <c r="H128" s="91"/>
     </row>
     <row r="129" spans="1:8" ht="12.3">
-      <c r="A129" s="82"/>
+      <c r="A129" s="94"/>
       <c r="B129" s="18" t="s">
         <v>409</v>
       </c>
@@ -13774,10 +13774,10 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
-      <c r="H129" s="85"/>
+      <c r="H129" s="91"/>
     </row>
     <row r="130" spans="1:8" ht="12.3">
-      <c r="A130" s="82"/>
+      <c r="A130" s="94"/>
       <c r="B130" s="18" t="s">
         <v>410</v>
       </c>
@@ -13788,10 +13788,10 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
-      <c r="H130" s="85"/>
+      <c r="H130" s="91"/>
     </row>
     <row r="131" spans="1:8" ht="12.3">
-      <c r="A131" s="83"/>
+      <c r="A131" s="95"/>
       <c r="B131" s="22" t="s">
         <v>411</v>
       </c>
@@ -13802,10 +13802,10 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
-      <c r="H131" s="86"/>
+      <c r="H131" s="92"/>
     </row>
     <row r="132" spans="1:8" ht="12.3">
-      <c r="A132" s="81" t="s">
+      <c r="A132" s="90" t="s">
         <v>655</v>
       </c>
       <c r="B132" s="21" t="s">
@@ -13818,10 +13818,10 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
-      <c r="H132" s="81"/>
+      <c r="H132" s="90"/>
     </row>
     <row r="133" spans="1:8" ht="12.3">
-      <c r="A133" s="82"/>
+      <c r="A133" s="94"/>
       <c r="B133" s="15" t="s">
         <v>413</v>
       </c>
@@ -13832,10 +13832,10 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
-      <c r="H133" s="85"/>
+      <c r="H133" s="91"/>
     </row>
     <row r="134" spans="1:8" ht="12.3">
-      <c r="A134" s="82"/>
+      <c r="A134" s="94"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="6" t="s">
@@ -13846,10 +13846,10 @@
       </c>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
-      <c r="H134" s="85"/>
+      <c r="H134" s="91"/>
     </row>
     <row r="135" spans="1:8" ht="12.3">
-      <c r="A135" s="82"/>
+      <c r="A135" s="94"/>
       <c r="B135" s="15" t="s">
         <v>415</v>
       </c>
@@ -13860,10 +13860,10 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
-      <c r="H135" s="85"/>
+      <c r="H135" s="91"/>
     </row>
     <row r="136" spans="1:8" ht="12.3">
-      <c r="A136" s="82"/>
+      <c r="A136" s="94"/>
       <c r="B136" s="10" t="s">
         <v>416</v>
       </c>
@@ -13874,10 +13874,10 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
-      <c r="H136" s="85"/>
+      <c r="H136" s="91"/>
     </row>
     <row r="137" spans="1:8" ht="12.3">
-      <c r="A137" s="82"/>
+      <c r="A137" s="94"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="38" t="s">
@@ -13888,10 +13888,10 @@
       </c>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
-      <c r="H137" s="85"/>
+      <c r="H137" s="91"/>
     </row>
     <row r="138" spans="1:8" ht="12.3">
-      <c r="A138" s="82"/>
+      <c r="A138" s="94"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="18" t="s">
@@ -13902,10 +13902,10 @@
       </c>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
-      <c r="H138" s="85"/>
+      <c r="H138" s="91"/>
     </row>
     <row r="139" spans="1:8" ht="12.3">
-      <c r="A139" s="82"/>
+      <c r="A139" s="94"/>
       <c r="B139" s="22" t="s">
         <v>419</v>
       </c>
@@ -13916,10 +13916,10 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
-      <c r="H139" s="85"/>
+      <c r="H139" s="91"/>
     </row>
     <row r="140" spans="1:8" ht="12.3">
-      <c r="A140" s="82"/>
+      <c r="A140" s="94"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="37" t="s">
@@ -13930,10 +13930,10 @@
       </c>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
-      <c r="H140" s="85"/>
+      <c r="H140" s="91"/>
     </row>
     <row r="141" spans="1:8" ht="12.3">
-      <c r="A141" s="83"/>
+      <c r="A141" s="95"/>
       <c r="B141" s="22" t="s">
         <v>421</v>
       </c>
@@ -13944,10 +13944,10 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
-      <c r="H141" s="86"/>
+      <c r="H141" s="92"/>
     </row>
     <row r="142" spans="1:8" ht="12.3">
-      <c r="A142" s="81" t="s">
+      <c r="A142" s="90" t="s">
         <v>656</v>
       </c>
       <c r="B142" s="7"/>
@@ -13960,10 +13960,10 @@
       </c>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
-      <c r="H142" s="81"/>
+      <c r="H142" s="90"/>
     </row>
     <row r="143" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A143" s="82"/>
+      <c r="A143" s="94"/>
       <c r="B143" s="10" t="s">
         <v>423</v>
       </c>
@@ -13974,10 +13974,10 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
-      <c r="H143" s="85"/>
+      <c r="H143" s="91"/>
     </row>
     <row r="144" spans="1:8" ht="12.3">
-      <c r="A144" s="82"/>
+      <c r="A144" s="94"/>
       <c r="B144" s="39" t="s">
         <v>424</v>
       </c>
@@ -13988,10 +13988,10 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
-      <c r="H144" s="85"/>
+      <c r="H144" s="91"/>
     </row>
     <row r="145" spans="1:8" ht="12.3">
-      <c r="A145" s="82"/>
+      <c r="A145" s="94"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="18" t="s">
@@ -14002,10 +14002,10 @@
       </c>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
-      <c r="H145" s="85"/>
+      <c r="H145" s="91"/>
     </row>
     <row r="146" spans="1:8" ht="12.3">
-      <c r="A146" s="82"/>
+      <c r="A146" s="94"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="10" t="s">
@@ -14016,10 +14016,10 @@
       </c>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
-      <c r="H146" s="85"/>
+      <c r="H146" s="91"/>
     </row>
     <row r="147" spans="1:8" ht="12.3">
-      <c r="A147" s="82"/>
+      <c r="A147" s="94"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="6" t="s">
@@ -14030,10 +14030,10 @@
       </c>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
-      <c r="H147" s="85"/>
+      <c r="H147" s="91"/>
     </row>
     <row r="148" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A148" s="82"/>
+      <c r="A148" s="94"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="10" t="s">
@@ -14044,10 +14044,10 @@
       </c>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
-      <c r="H148" s="85"/>
+      <c r="H148" s="91"/>
     </row>
     <row r="149" spans="1:8" ht="12.3">
-      <c r="A149" s="82"/>
+      <c r="A149" s="94"/>
       <c r="B149" s="10" t="s">
         <v>429</v>
       </c>
@@ -14058,10 +14058,10 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
-      <c r="H149" s="85"/>
+      <c r="H149" s="91"/>
     </row>
     <row r="150" spans="1:8" ht="12.3">
-      <c r="A150" s="82"/>
+      <c r="A150" s="94"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="18" t="s">
@@ -14072,10 +14072,10 @@
       </c>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
-      <c r="H150" s="85"/>
+      <c r="H150" s="91"/>
     </row>
     <row r="151" spans="1:8" ht="12.3">
-      <c r="A151" s="83"/>
+      <c r="A151" s="95"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="10" t="s">
@@ -14086,10 +14086,10 @@
       </c>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
-      <c r="H151" s="86"/>
+      <c r="H151" s="92"/>
     </row>
     <row r="152" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A152" s="81" t="s">
+      <c r="A152" s="90" t="s">
         <v>658</v>
       </c>
       <c r="B152" s="18" t="s">
@@ -14102,10 +14102,10 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
-      <c r="H152" s="81"/>
+      <c r="H152" s="90"/>
     </row>
     <row r="153" spans="1:8" ht="12.3">
-      <c r="A153" s="82"/>
+      <c r="A153" s="94"/>
       <c r="B153" s="15" t="s">
         <v>432</v>
       </c>
@@ -14116,10 +14116,10 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
-      <c r="H153" s="85"/>
+      <c r="H153" s="91"/>
     </row>
     <row r="154" spans="1:8" ht="12.3">
-      <c r="A154" s="82"/>
+      <c r="A154" s="94"/>
       <c r="B154" s="18" t="s">
         <v>433</v>
       </c>
@@ -14130,10 +14130,10 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
-      <c r="H154" s="85"/>
+      <c r="H154" s="91"/>
     </row>
     <row r="155" spans="1:8" ht="12.3">
-      <c r="A155" s="82"/>
+      <c r="A155" s="94"/>
       <c r="B155" s="18" t="s">
         <v>434</v>
       </c>
@@ -14144,10 +14144,10 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
-      <c r="H155" s="85"/>
+      <c r="H155" s="91"/>
     </row>
     <row r="156" spans="1:8" ht="12.3">
-      <c r="A156" s="82"/>
+      <c r="A156" s="94"/>
       <c r="B156" s="18" t="s">
         <v>435</v>
       </c>
@@ -14158,10 +14158,10 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
-      <c r="H156" s="85"/>
+      <c r="H156" s="91"/>
     </row>
     <row r="157" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A157" s="82"/>
+      <c r="A157" s="94"/>
       <c r="B157" s="7" t="s">
         <v>436</v>
       </c>
@@ -14172,10 +14172,10 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
-      <c r="H157" s="85"/>
+      <c r="H157" s="91"/>
     </row>
     <row r="158" spans="1:8" ht="12.3">
-      <c r="A158" s="82"/>
+      <c r="A158" s="94"/>
       <c r="B158" s="18" t="s">
         <v>437</v>
       </c>
@@ -14186,10 +14186,10 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
-      <c r="H158" s="85"/>
+      <c r="H158" s="91"/>
     </row>
     <row r="159" spans="1:8" ht="12.3">
-      <c r="A159" s="82"/>
+      <c r="A159" s="94"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="10" t="s">
@@ -14200,10 +14200,10 @@
       </c>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
-      <c r="H159" s="85"/>
+      <c r="H159" s="91"/>
     </row>
     <row r="160" spans="1:8" ht="12.3">
-      <c r="A160" s="82"/>
+      <c r="A160" s="94"/>
       <c r="B160" s="15" t="s">
         <v>439</v>
       </c>
@@ -14214,10 +14214,10 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
-      <c r="H160" s="85"/>
+      <c r="H160" s="91"/>
     </row>
     <row r="161" spans="1:8" ht="12.3">
-      <c r="A161" s="83"/>
+      <c r="A161" s="95"/>
       <c r="B161" s="15" t="s">
         <v>441</v>
       </c>
@@ -14228,10 +14228,10 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
-      <c r="H161" s="86"/>
+      <c r="H161" s="92"/>
     </row>
     <row r="162" spans="1:8" ht="12.3">
-      <c r="A162" s="81" t="s">
+      <c r="A162" s="90" t="s">
         <v>659</v>
       </c>
       <c r="B162" s="8"/>
@@ -14244,10 +14244,10 @@
       </c>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="81"/>
+      <c r="H162" s="90"/>
     </row>
     <row r="163" spans="1:8" ht="12.3">
-      <c r="A163" s="82"/>
+      <c r="A163" s="94"/>
       <c r="B163" s="10" t="s">
         <v>443</v>
       </c>
@@ -14258,10 +14258,10 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
-      <c r="H163" s="85"/>
+      <c r="H163" s="91"/>
     </row>
     <row r="164" spans="1:8" ht="12.3">
-      <c r="A164" s="82"/>
+      <c r="A164" s="94"/>
       <c r="B164" s="15" t="s">
         <v>444</v>
       </c>
@@ -14272,10 +14272,10 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="85"/>
+      <c r="H164" s="91"/>
     </row>
     <row r="165" spans="1:8" ht="12.3">
-      <c r="A165" s="82"/>
+      <c r="A165" s="94"/>
       <c r="B165" s="21" t="s">
         <v>445</v>
       </c>
@@ -14286,10 +14286,10 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
-      <c r="H165" s="85"/>
+      <c r="H165" s="91"/>
     </row>
     <row r="166" spans="1:8" ht="12.3">
-      <c r="A166" s="82"/>
+      <c r="A166" s="94"/>
       <c r="B166" s="18" t="s">
         <v>446</v>
       </c>
@@ -14300,10 +14300,10 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
-      <c r="H166" s="85"/>
+      <c r="H166" s="91"/>
     </row>
     <row r="167" spans="1:8" ht="12.3">
-      <c r="A167" s="82"/>
+      <c r="A167" s="94"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
@@ -14314,10 +14314,10 @@
       <c r="G167" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H167" s="85"/>
+      <c r="H167" s="91"/>
     </row>
     <row r="168" spans="1:8" ht="12.3">
-      <c r="A168" s="82"/>
+      <c r="A168" s="94"/>
       <c r="B168" s="22" t="s">
         <v>448</v>
       </c>
@@ -14328,10 +14328,10 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
-      <c r="H168" s="85"/>
+      <c r="H168" s="91"/>
     </row>
     <row r="169" spans="1:8" ht="12.3">
-      <c r="A169" s="82"/>
+      <c r="A169" s="94"/>
       <c r="B169" s="6" t="s">
         <v>449</v>
       </c>
@@ -14342,10 +14342,10 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
-      <c r="H169" s="85"/>
+      <c r="H169" s="91"/>
     </row>
     <row r="170" spans="1:8" ht="12.3">
-      <c r="A170" s="82"/>
+      <c r="A170" s="94"/>
       <c r="B170" s="6" t="s">
         <v>450</v>
       </c>
@@ -14356,10 +14356,10 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
-      <c r="H170" s="85"/>
+      <c r="H170" s="91"/>
     </row>
     <row r="171" spans="1:8" ht="12.3">
-      <c r="A171" s="83"/>
+      <c r="A171" s="95"/>
       <c r="B171" s="18" t="s">
         <v>451</v>
       </c>
@@ -14370,10 +14370,10 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
-      <c r="H171" s="86"/>
+      <c r="H171" s="92"/>
     </row>
     <row r="172" spans="1:8" ht="12.3">
-      <c r="A172" s="81" t="s">
+      <c r="A172" s="90" t="s">
         <v>660</v>
       </c>
       <c r="B172" s="6" t="s">
@@ -14386,10 +14386,10 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
-      <c r="H172" s="81"/>
+      <c r="H172" s="90"/>
     </row>
     <row r="173" spans="1:8" ht="12.3">
-      <c r="A173" s="82"/>
+      <c r="A173" s="94"/>
       <c r="B173" s="6" t="s">
         <v>453</v>
       </c>
@@ -14400,10 +14400,10 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
-      <c r="H173" s="85"/>
+      <c r="H173" s="91"/>
     </row>
     <row r="174" spans="1:8" ht="12.3">
-      <c r="A174" s="82"/>
+      <c r="A174" s="94"/>
       <c r="B174" s="6" t="s">
         <v>454</v>
       </c>
@@ -14414,10 +14414,10 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
-      <c r="H174" s="85"/>
+      <c r="H174" s="91"/>
     </row>
     <row r="175" spans="1:8" ht="12.3">
-      <c r="A175" s="82"/>
+      <c r="A175" s="94"/>
       <c r="B175" s="6" t="s">
         <v>304</v>
       </c>
@@ -14428,10 +14428,10 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
-      <c r="H175" s="85"/>
+      <c r="H175" s="91"/>
     </row>
     <row r="176" spans="1:8" ht="12.3">
-      <c r="A176" s="82"/>
+      <c r="A176" s="94"/>
       <c r="B176" s="6" t="s">
         <v>455</v>
       </c>
@@ -14442,10 +14442,10 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
-      <c r="H176" s="85"/>
+      <c r="H176" s="91"/>
     </row>
     <row r="177" spans="1:8" ht="12.3">
-      <c r="A177" s="82"/>
+      <c r="A177" s="94"/>
       <c r="B177" s="10" t="s">
         <v>456</v>
       </c>
@@ -14456,10 +14456,10 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
-      <c r="H177" s="85"/>
+      <c r="H177" s="91"/>
     </row>
     <row r="178" spans="1:8" ht="12.3">
-      <c r="A178" s="82"/>
+      <c r="A178" s="94"/>
       <c r="B178" s="6" t="s">
         <v>457</v>
       </c>
@@ -14470,10 +14470,10 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
-      <c r="H178" s="85"/>
+      <c r="H178" s="91"/>
     </row>
     <row r="179" spans="1:8" ht="12.3">
-      <c r="A179" s="82"/>
+      <c r="A179" s="94"/>
       <c r="B179" s="10" t="s">
         <v>458</v>
       </c>
@@ -14484,10 +14484,10 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
-      <c r="H179" s="85"/>
+      <c r="H179" s="91"/>
     </row>
     <row r="180" spans="1:8" ht="12.3">
-      <c r="A180" s="82"/>
+      <c r="A180" s="94"/>
       <c r="B180" s="10" t="s">
         <v>459</v>
       </c>
@@ -14498,10 +14498,10 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
-      <c r="H180" s="85"/>
+      <c r="H180" s="91"/>
     </row>
     <row r="181" spans="1:8" ht="12.3">
-      <c r="A181" s="83"/>
+      <c r="A181" s="95"/>
       <c r="B181" s="10" t="s">
         <v>460</v>
       </c>
@@ -14512,23 +14512,14 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
-      <c r="H181" s="86"/>
+      <c r="H181" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="H152:H161"/>
-    <mergeCell ref="H162:H171"/>
-    <mergeCell ref="H82:H91"/>
-    <mergeCell ref="H92:H101"/>
-    <mergeCell ref="H102:H111"/>
-    <mergeCell ref="H112:H121"/>
-    <mergeCell ref="H122:H131"/>
-    <mergeCell ref="H132:H141"/>
-    <mergeCell ref="H142:H151"/>
-    <mergeCell ref="H72:H81"/>
+    <mergeCell ref="A122:A131"/>
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="A102:A111"/>
+    <mergeCell ref="A92:A101"/>
     <mergeCell ref="H172:H181"/>
     <mergeCell ref="A52:A61"/>
     <mergeCell ref="H12:H21"/>
@@ -14545,13 +14536,22 @@
     <mergeCell ref="A162:A171"/>
     <mergeCell ref="A152:A161"/>
     <mergeCell ref="A142:A151"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="H152:H161"/>
+    <mergeCell ref="H162:H171"/>
+    <mergeCell ref="H82:H91"/>
+    <mergeCell ref="H92:H101"/>
+    <mergeCell ref="H102:H111"/>
+    <mergeCell ref="H112:H121"/>
+    <mergeCell ref="H122:H131"/>
+    <mergeCell ref="H132:H141"/>
+    <mergeCell ref="H142:H151"/>
+    <mergeCell ref="H72:H81"/>
     <mergeCell ref="A132:A141"/>
     <mergeCell ref="A82:A91"/>
     <mergeCell ref="A72:A81"/>
-    <mergeCell ref="A122:A131"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="A102:A111"/>
-    <mergeCell ref="A92:A101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14600,13 +14600,13 @@
       <c r="H1" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12" ht="12.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="90" t="s">
         <v>643</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -14619,16 +14619,16 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="90" t="s">
         <v>661</v>
       </c>
-      <c r="I2" s="105"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" spans="1:12" ht="12.3">
-      <c r="A3" s="85"/>
+      <c r="A3" s="91"/>
       <c r="B3" s="6" t="s">
         <v>592</v>
       </c>
@@ -14639,14 +14639,14 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:12" ht="12.3">
-      <c r="A4" s="85"/>
+      <c r="A4" s="91"/>
       <c r="B4" s="6" t="s">
         <v>593</v>
       </c>
@@ -14657,14 +14657,14 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
     </row>
     <row r="5" spans="1:12" ht="12.3">
-      <c r="A5" s="85"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="15" t="s">
         <v>594</v>
       </c>
@@ -14675,14 +14675,14 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
     </row>
     <row r="6" spans="1:12" ht="12.3">
-      <c r="A6" s="85"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="6" t="s">
         <v>592</v>
       </c>
@@ -14693,14 +14693,14 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
     </row>
     <row r="7" spans="1:12" ht="12.3">
-      <c r="A7" s="85"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="6" t="s">
         <v>592</v>
       </c>
@@ -14711,14 +14711,14 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:12" ht="12.3">
-      <c r="A8" s="85"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="15" t="s">
         <v>269</v>
       </c>
@@ -14729,14 +14729,14 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
     </row>
     <row r="9" spans="1:12" ht="12.3">
-      <c r="A9" s="85"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="15" t="s">
         <v>376</v>
       </c>
@@ -14747,10 +14747,10 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="85"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:12" ht="12.3">
-      <c r="A10" s="85"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="6" t="s">
         <v>493</v>
       </c>
@@ -14761,10 +14761,10 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="85"/>
+      <c r="H10" s="91"/>
     </row>
     <row r="11" spans="1:12" ht="12.3">
-      <c r="A11" s="86"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="10" t="s">
         <v>264</v>
       </c>
@@ -14775,10 +14775,10 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="86"/>
+      <c r="H11" s="92"/>
     </row>
     <row r="12" spans="1:12" ht="12.3">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="90" t="s">
         <v>644</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -14791,10 +14791,10 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="81"/>
+      <c r="H12" s="90"/>
     </row>
     <row r="13" spans="1:12" ht="12.3">
-      <c r="A13" s="85"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="6" t="s">
         <v>316</v>
       </c>
@@ -14805,10 +14805,10 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="85"/>
+      <c r="H13" s="91"/>
     </row>
     <row r="14" spans="1:12" ht="12.3">
-      <c r="A14" s="85"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="38" t="s">
         <v>599</v>
       </c>
@@ -14819,10 +14819,10 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="85"/>
+      <c r="H14" s="91"/>
     </row>
     <row r="15" spans="1:12" ht="12.3">
-      <c r="A15" s="85"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="10" t="s">
         <v>600</v>
       </c>
@@ -14833,10 +14833,10 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="85"/>
+      <c r="H15" s="91"/>
     </row>
     <row r="16" spans="1:12" ht="12.3">
-      <c r="A16" s="85"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="10" t="s">
@@ -14847,10 +14847,10 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="85"/>
+      <c r="H16" s="91"/>
     </row>
     <row r="17" spans="1:8" ht="12.3">
-      <c r="A17" s="85"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="15" t="s">
         <v>602</v>
       </c>
@@ -14861,10 +14861,10 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="85"/>
+      <c r="H17" s="91"/>
     </row>
     <row r="18" spans="1:8" ht="12.3">
-      <c r="A18" s="85"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="15" t="s">
         <v>603</v>
       </c>
@@ -14875,10 +14875,10 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="85"/>
+      <c r="H18" s="91"/>
     </row>
     <row r="19" spans="1:8" ht="12.3">
-      <c r="A19" s="85"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="22" t="s">
@@ -14889,10 +14889,10 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="85"/>
+      <c r="H19" s="91"/>
     </row>
     <row r="20" spans="1:8" ht="12.3">
-      <c r="A20" s="85"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="38" t="s">
@@ -14903,10 +14903,10 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="85"/>
+      <c r="H20" s="91"/>
     </row>
     <row r="21" spans="1:8" ht="12.3">
-      <c r="A21" s="86"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="22" t="s">
         <v>606</v>
       </c>
@@ -14917,10 +14917,10 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="86"/>
+      <c r="H21" s="92"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="90" t="s">
         <v>645</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -14933,10 +14933,10 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="81"/>
+      <c r="H22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="12.3">
-      <c r="A23" s="85"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="10" t="s">
         <v>608</v>
       </c>
@@ -14947,10 +14947,10 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="85"/>
+      <c r="H23" s="91"/>
     </row>
     <row r="24" spans="1:8" ht="12.3">
-      <c r="A24" s="85"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="22" t="s">
         <v>609</v>
       </c>
@@ -14961,10 +14961,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="85"/>
+      <c r="H24" s="91"/>
     </row>
     <row r="25" spans="1:8" ht="12.3">
-      <c r="A25" s="85"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="15" t="s">
         <v>548</v>
       </c>
@@ -14975,10 +14975,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="85"/>
+      <c r="H25" s="91"/>
     </row>
     <row r="26" spans="1:8" ht="12.3">
-      <c r="A26" s="85"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="6" t="s">
         <v>610</v>
       </c>
@@ -14989,10 +14989,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="85"/>
+      <c r="H26" s="91"/>
     </row>
     <row r="27" spans="1:8" ht="12.3">
-      <c r="A27" s="85"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="6" t="s">
         <v>611</v>
       </c>
@@ -15003,10 +15003,10 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="85"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="12.3">
-      <c r="A28" s="85"/>
+      <c r="A28" s="91"/>
       <c r="B28" s="15" t="s">
         <v>271</v>
       </c>
@@ -15017,10 +15017,10 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="85"/>
+      <c r="H28" s="91"/>
     </row>
     <row r="29" spans="1:8" ht="12.3">
-      <c r="A29" s="85"/>
+      <c r="A29" s="91"/>
       <c r="B29" s="18" t="s">
         <v>391</v>
       </c>
@@ -15031,10 +15031,10 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="85"/>
+      <c r="H29" s="91"/>
     </row>
     <row r="30" spans="1:8" ht="12.3">
-      <c r="A30" s="85"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="22" t="s">
         <v>481</v>
       </c>
@@ -15045,10 +15045,10 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="85"/>
+      <c r="H30" s="91"/>
     </row>
     <row r="31" spans="1:8" ht="12.3">
-      <c r="A31" s="86"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="6" t="s">
         <v>612</v>
       </c>
@@ -15059,10 +15059,10 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="86"/>
+      <c r="H31" s="92"/>
     </row>
     <row r="32" spans="1:8" ht="12.3">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="90" t="s">
         <v>646</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -15075,10 +15075,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="81"/>
+      <c r="H32" s="90"/>
     </row>
     <row r="33" spans="1:8" ht="12.3">
-      <c r="A33" s="85"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="10" t="s">
         <v>573</v>
       </c>
@@ -15089,10 +15089,10 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="85"/>
+      <c r="H33" s="91"/>
     </row>
     <row r="34" spans="1:8" ht="12.3">
-      <c r="A34" s="85"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="10" t="s">
         <v>614</v>
       </c>
@@ -15103,10 +15103,10 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="85"/>
+      <c r="H34" s="91"/>
     </row>
     <row r="35" spans="1:8" ht="12.3">
-      <c r="A35" s="85"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="10" t="s">
         <v>615</v>
       </c>
@@ -15117,10 +15117,10 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="85"/>
+      <c r="H35" s="91"/>
     </row>
     <row r="36" spans="1:8" ht="12.3">
-      <c r="A36" s="85"/>
+      <c r="A36" s="91"/>
       <c r="B36" s="10" t="s">
         <v>569</v>
       </c>
@@ -15131,10 +15131,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="85"/>
+      <c r="H36" s="91"/>
     </row>
     <row r="37" spans="1:8" ht="12.3">
-      <c r="A37" s="85"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="10" t="s">
         <v>616</v>
       </c>
@@ -15145,10 +15145,10 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="85"/>
+      <c r="H37" s="91"/>
     </row>
     <row r="38" spans="1:8" ht="12.3">
-      <c r="A38" s="85"/>
+      <c r="A38" s="91"/>
       <c r="B38" s="10" t="s">
         <v>287</v>
       </c>
@@ -15159,10 +15159,10 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="85"/>
+      <c r="H38" s="91"/>
     </row>
     <row r="39" spans="1:8" ht="12.3">
-      <c r="A39" s="85"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="10" t="s">
         <v>264</v>
       </c>
@@ -15173,10 +15173,10 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="85"/>
+      <c r="H39" s="91"/>
     </row>
     <row r="40" spans="1:8" ht="12.3">
-      <c r="A40" s="85"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="22" t="s">
         <v>571</v>
       </c>
@@ -15187,10 +15187,10 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="85"/>
+      <c r="H40" s="91"/>
     </row>
     <row r="41" spans="1:8" ht="12.3">
-      <c r="A41" s="86"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="18" t="s">
         <v>617</v>
       </c>
@@ -15201,10 +15201,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="86"/>
+      <c r="H41" s="92"/>
     </row>
     <row r="42" spans="1:8" ht="12.3">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="90" t="s">
         <v>647</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -15217,10 +15217,10 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="81"/>
+      <c r="H42" s="90"/>
     </row>
     <row r="43" spans="1:8" ht="12.3">
-      <c r="A43" s="85"/>
+      <c r="A43" s="91"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="7" t="s">
@@ -15229,10 +15229,10 @@
       <c r="G43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="85"/>
+      <c r="H43" s="91"/>
     </row>
     <row r="44" spans="1:8" ht="12.3">
-      <c r="A44" s="85"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="6" t="s">
         <v>620</v>
       </c>
@@ -15243,10 +15243,10 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="85"/>
+      <c r="H44" s="91"/>
     </row>
     <row r="45" spans="1:8" ht="12.3">
-      <c r="A45" s="85"/>
+      <c r="A45" s="91"/>
       <c r="B45" s="10" t="s">
         <v>536</v>
       </c>
@@ -15257,10 +15257,10 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="85"/>
+      <c r="H45" s="91"/>
     </row>
     <row r="46" spans="1:8" ht="15">
-      <c r="A46" s="85"/>
+      <c r="A46" s="91"/>
       <c r="B46" s="41" t="s">
         <v>621</v>
       </c>
@@ -15271,10 +15271,10 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="85"/>
+      <c r="H46" s="91"/>
     </row>
     <row r="47" spans="1:8" ht="12.3">
-      <c r="A47" s="85"/>
+      <c r="A47" s="91"/>
       <c r="B47" s="15" t="s">
         <v>622</v>
       </c>
@@ -15285,10 +15285,10 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="85"/>
+      <c r="H47" s="91"/>
     </row>
     <row r="48" spans="1:8" ht="12.3">
-      <c r="A48" s="85"/>
+      <c r="A48" s="91"/>
       <c r="B48" s="15" t="s">
         <v>376</v>
       </c>
@@ -15299,10 +15299,10 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="85"/>
+      <c r="H48" s="91"/>
     </row>
     <row r="49" spans="1:8" ht="12.3">
-      <c r="A49" s="85"/>
+      <c r="A49" s="91"/>
       <c r="B49" s="18" t="s">
         <v>623</v>
       </c>
@@ -15313,10 +15313,10 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="85"/>
+      <c r="H49" s="91"/>
     </row>
     <row r="50" spans="1:8" ht="12.3">
-      <c r="A50" s="85"/>
+      <c r="A50" s="91"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="21" t="s">
@@ -15327,10 +15327,10 @@
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="85"/>
+      <c r="H50" s="91"/>
     </row>
     <row r="51" spans="1:8" ht="12.3">
-      <c r="A51" s="86"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -15341,10 +15341,10 @@
       <c r="G51" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="86"/>
+      <c r="H51" s="92"/>
     </row>
     <row r="52" spans="1:8" ht="12.3">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="90" t="s">
         <v>648</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -15357,10 +15357,10 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="81"/>
+      <c r="H52" s="90"/>
     </row>
     <row r="53" spans="1:8" ht="12.3">
-      <c r="A53" s="85"/>
+      <c r="A53" s="91"/>
       <c r="B53" s="10" t="s">
         <v>627</v>
       </c>
@@ -15371,10 +15371,10 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="85"/>
+      <c r="H53" s="91"/>
     </row>
     <row r="54" spans="1:8" ht="12.3">
-      <c r="A54" s="85"/>
+      <c r="A54" s="91"/>
       <c r="B54" s="15" t="s">
         <v>628</v>
       </c>
@@ -15385,10 +15385,10 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="85"/>
+      <c r="H54" s="91"/>
     </row>
     <row r="55" spans="1:8" ht="12.3">
-      <c r="A55" s="85"/>
+      <c r="A55" s="91"/>
       <c r="B55" s="18" t="s">
         <v>629</v>
       </c>
@@ -15399,10 +15399,10 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="85"/>
+      <c r="H55" s="91"/>
     </row>
     <row r="56" spans="1:8" ht="12.3">
-      <c r="A56" s="85"/>
+      <c r="A56" s="91"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="10" t="s">
@@ -15413,10 +15413,10 @@
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="85"/>
+      <c r="H56" s="91"/>
     </row>
     <row r="57" spans="1:8" ht="12.3">
-      <c r="A57" s="85"/>
+      <c r="A57" s="91"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="6" t="s">
@@ -15427,10 +15427,10 @@
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="85"/>
+      <c r="H57" s="91"/>
     </row>
     <row r="58" spans="1:8" ht="12.3">
-      <c r="A58" s="85"/>
+      <c r="A58" s="91"/>
       <c r="B58" s="6" t="s">
         <v>633</v>
       </c>
@@ -15441,10 +15441,10 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="85"/>
+      <c r="H58" s="91"/>
     </row>
     <row r="59" spans="1:8" ht="12.3">
-      <c r="A59" s="85"/>
+      <c r="A59" s="91"/>
       <c r="B59" s="10" t="s">
         <v>635</v>
       </c>
@@ -15455,10 +15455,10 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="85"/>
+      <c r="H59" s="91"/>
     </row>
     <row r="60" spans="1:8" ht="12.3">
-      <c r="A60" s="85"/>
+      <c r="A60" s="91"/>
       <c r="B60" s="10" t="s">
         <v>636</v>
       </c>
@@ -15469,10 +15469,10 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="85"/>
+      <c r="H60" s="91"/>
     </row>
     <row r="61" spans="1:8" ht="12.3">
-      <c r="A61" s="86"/>
+      <c r="A61" s="92"/>
       <c r="B61" s="10" t="s">
         <v>637</v>
       </c>
@@ -15483,10 +15483,14 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="86"/>
+      <c r="H61" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A32:A41"/>
     <mergeCell ref="A42:A51"/>
     <mergeCell ref="A52:A61"/>
     <mergeCell ref="H12:H21"/>
@@ -15495,10 +15499,6 @@
     <mergeCell ref="H42:H51"/>
     <mergeCell ref="H52:H61"/>
     <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A32:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15511,7 +15511,9 @@
   </sheetPr>
   <dimension ref="A1:AC42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -16039,6 +16041,9 @@
       <c r="K8" s="36" t="s">
         <v>273</v>
       </c>
+      <c r="N8" s="78">
+        <v>2</v>
+      </c>
       <c r="P8" s="36" t="s">
         <v>273</v>
       </c>
@@ -16061,7 +16066,7 @@
       </c>
       <c r="AC8" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.3">
@@ -18281,7 +18286,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="82" t="s">
         <v>661</v>
       </c>
     </row>
